--- a/results/old/processed.xlsx
+++ b/results/old/processed.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbhit/Sources/Personal/iga-adi-giraph/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbhit/Sources/Personal/iga-adi-giraph/results/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C3B7A0-E1BA-AF4D-8C1F-CD532D58B9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03F97D9-5A05-944C-8524-08D6252790A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="weak" sheetId="3" r:id="rId2"/>
-    <sheet name="matrix" sheetId="5" r:id="rId3"/>
+    <sheet name="matrix" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$A$85</definedName>
     <definedName name="Slicer_problemSize">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId4"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>problemSize</t>
   </si>
@@ -86,27 +86,6 @@
   </si>
   <si>
     <t>threads</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>initialisation</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>speedup load</t>
-  </si>
-  <si>
-    <t>speedup init</t>
-  </si>
-  <si>
-    <t>speedup total</t>
-  </si>
-  <si>
-    <t>elements / t</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -170,6 +149,9 @@
   </si>
   <si>
     <t>weakSpeedup</t>
+  </si>
+  <si>
+    <t>karp-flatt</t>
   </si>
 </sst>
 </file>
@@ -705,18 +687,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -744,8 +715,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66672</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="problemSize">
@@ -768,7 +739,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1861,7 +1832,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49F79D5D-B47B-FB40-8D99-4135EF995644}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49F79D5D-B47B-FB40-8D99-4135EF995644}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:N52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -2572,10 +2543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W85"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2594,7 +2566,7 @@
     <col min="23" max="23" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2614,58 +2586,61 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12288</v>
       </c>
@@ -2685,11 +2660,11 @@
         <v>5274159</v>
       </c>
       <c r="G2">
-        <f>POWER(A2,2)/C2</f>
+        <f t="shared" ref="G2:G33" si="0">POWER(A2,2)/C2</f>
         <v>150994944</v>
       </c>
       <c r="H2">
-        <f>ROUND(G2,-3)</f>
+        <f t="shared" ref="H2:H33" si="1">ROUND(G2,-3)</f>
         <v>150995000</v>
       </c>
       <c r="I2" cm="1">
@@ -2709,19 +2684,19 @@
         <v>241646</v>
       </c>
       <c r="M2">
-        <f>J2/F2</f>
+        <f t="shared" ref="M2:M33" si="2">J2/F2</f>
         <v>1</v>
       </c>
       <c r="N2">
-        <f>K2/E2</f>
+        <f t="shared" ref="N2:N33" si="3">K2/E2</f>
         <v>1</v>
       </c>
       <c r="O2">
-        <f>L2/D2</f>
+        <f t="shared" ref="O2:O33" si="4">L2/D2</f>
         <v>1</v>
       </c>
       <c r="P2">
-        <f>1/M2</f>
+        <f t="shared" ref="P2:P33" si="5">1/M2</f>
         <v>1</v>
       </c>
       <c r="Q2" cm="1">
@@ -2737,23 +2712,27 @@
         <v>4284814</v>
       </c>
       <c r="T2">
-        <f>R2/F2</f>
+        <f t="shared" ref="T2:T33" si="6">R2/F2</f>
         <v>1</v>
       </c>
       <c r="U2">
-        <f>S2/E2</f>
+        <f t="shared" ref="U2:U33" si="7">S2/E2</f>
         <v>1</v>
       </c>
       <c r="V2">
-        <f>C2*U2</f>
+        <f t="shared" ref="V2:V33" si="8">C2*U2</f>
         <v>1</v>
       </c>
       <c r="W2" t="e">
-        <f>(M2-C2)/(1-C2)</f>
+        <f t="shared" ref="W2:W33" si="9">(M2-C2)/(1-C2)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" t="e">
+        <f>(1/M2-1/C2)/(1-1/C2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12288</v>
       </c>
@@ -2773,11 +2752,11 @@
         <v>2726824</v>
       </c>
       <c r="G3">
-        <f>POWER(A3,2)/C3</f>
+        <f t="shared" si="0"/>
         <v>75497472</v>
       </c>
       <c r="H3">
-        <f>ROUND(G3,-3)</f>
+        <f t="shared" si="1"/>
         <v>75497000</v>
       </c>
       <c r="I3" cm="1">
@@ -2797,19 +2776,19 @@
         <v>241646</v>
       </c>
       <c r="M3">
-        <f>J3/F3</f>
+        <f t="shared" si="2"/>
         <v>1.9341765365128076</v>
       </c>
       <c r="N3">
-        <f>K3/E3</f>
+        <f t="shared" si="3"/>
         <v>1.9680387653867353</v>
       </c>
       <c r="O3">
-        <f>L3/D3</f>
+        <f t="shared" si="4"/>
         <v>1.9378032253149533</v>
       </c>
       <c r="P3">
-        <f>1/M3</f>
+        <f t="shared" si="5"/>
         <v>0.5170158882202831</v>
       </c>
       <c r="Q3" cm="1">
@@ -2825,23 +2804,27 @@
         <v>2177200</v>
       </c>
       <c r="T3">
-        <f>R3/F3</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U3">
-        <f>S3/E3</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V3">
-        <f>C3*U3</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="W3">
-        <f>(M3-C3)/(1-C3)</f>
+        <f t="shared" si="9"/>
         <v>6.5823463487192369E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="10">(1/M3-1/C3)/(1-1/C3)</f>
+        <v>3.4031776440566208E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12288</v>
       </c>
@@ -2861,11 +2844,11 @@
         <v>1245155</v>
       </c>
       <c r="G4">
-        <f>POWER(A4,2)/C4</f>
+        <f t="shared" si="0"/>
         <v>37748736</v>
       </c>
       <c r="H4">
-        <f>ROUND(G4,-3)</f>
+        <f t="shared" si="1"/>
         <v>37749000</v>
       </c>
       <c r="I4" cm="1">
@@ -2885,19 +2868,19 @@
         <v>241646</v>
       </c>
       <c r="M4">
-        <f>J4/F4</f>
+        <f t="shared" si="2"/>
         <v>4.235744947416185</v>
       </c>
       <c r="N4">
-        <f>K4/E4</f>
+        <f t="shared" si="3"/>
         <v>4.4684820163166634</v>
       </c>
       <c r="O4">
-        <f>L4/D4</f>
+        <f t="shared" si="4"/>
         <v>3.4707284844306563</v>
       </c>
       <c r="P4">
-        <f>1/M4</f>
+        <f t="shared" si="5"/>
         <v>0.23608598072223458</v>
       </c>
       <c r="Q4" cm="1">
@@ -2913,23 +2896,27 @@
         <v>1139754</v>
       </c>
       <c r="T4">
-        <f>R4/F4</f>
+        <f t="shared" si="6"/>
         <v>1.1191546433978099</v>
       </c>
       <c r="U4">
-        <f>S4/E4</f>
+        <f t="shared" si="7"/>
         <v>1.1886094126897884</v>
       </c>
       <c r="V4">
-        <f>C4*U4</f>
+        <f t="shared" si="8"/>
         <v>4.7544376507591535</v>
       </c>
       <c r="W4">
-        <f>(M4-C4)/(1-C4)</f>
+        <f t="shared" si="9"/>
         <v>-7.8581649138728338E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4">
+        <f t="shared" si="10"/>
+        <v>-1.855202570368723E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6144</v>
       </c>
@@ -2949,11 +2936,11 @@
         <v>1393521</v>
       </c>
       <c r="G5">
-        <f>POWER(A5,2)/C5</f>
+        <f t="shared" si="0"/>
         <v>37748736</v>
       </c>
       <c r="H5">
-        <f>ROUND(G5,-3)</f>
+        <f t="shared" si="1"/>
         <v>37749000</v>
       </c>
       <c r="I5" cm="1">
@@ -2973,19 +2960,19 @@
         <v>59656</v>
       </c>
       <c r="M5">
-        <f>J5/F5</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N5">
-        <f>K5/E5</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O5">
-        <f>L5/D5</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P5">
-        <f>1/M5</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q5" cm="1">
@@ -3001,23 +2988,27 @@
         <v>1139754</v>
       </c>
       <c r="T5">
-        <f>R5/F5</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U5">
-        <f>S5/E5</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V5">
-        <f>C5*U5</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W5" t="e">
-        <f>(M5-C5)/(1-C5)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>49152</v>
       </c>
@@ -3038,11 +3029,11 @@
         <v>2214449</v>
       </c>
       <c r="G6">
-        <f>POWER(A6,2)/C6</f>
+        <f t="shared" si="0"/>
         <v>30198988.800000001</v>
       </c>
       <c r="H6">
-        <f>ROUND(G6,-3)</f>
+        <f t="shared" si="1"/>
         <v>30199000</v>
       </c>
       <c r="I6" cm="1">
@@ -3062,19 +3053,19 @@
         <v>100880</v>
       </c>
       <c r="M6">
-        <f>J6/F6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N6">
-        <f>K6/E6</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>L6/D6</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P6">
-        <f>1/M6</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q6" cm="1">
@@ -3090,23 +3081,27 @@
         <v>1686564</v>
       </c>
       <c r="T6">
-        <f>R6/F6</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U6">
-        <f>S6/E6</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V6">
-        <f>C6*U6</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="W6">
-        <f>(M6-C6)/(1-C6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>24576</v>
       </c>
@@ -3127,11 +3122,11 @@
         <v>1658533</v>
       </c>
       <c r="G7">
-        <f>POWER(A7,2)/C7</f>
+        <f t="shared" si="0"/>
         <v>25165824</v>
       </c>
       <c r="H7">
-        <f>ROUND(G7,-3)</f>
+        <f t="shared" si="1"/>
         <v>25166000</v>
       </c>
       <c r="I7" cm="1">
@@ -3151,19 +3146,19 @@
         <v>83336</v>
       </c>
       <c r="M7">
-        <f>J7/F7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N7">
-        <f>K7/E7</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>L7/D7</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P7">
-        <f>1/M7</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q7" cm="1">
@@ -3179,23 +3174,27 @@
         <v>1231031</v>
       </c>
       <c r="T7">
-        <f>R7/F7</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U7">
-        <f>S7/E7</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V7">
-        <f>C7*U7</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="W7">
-        <f>(M7-C7)/(1-C7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>24576</v>
       </c>
@@ -3216,11 +3215,11 @@
         <v>1359830</v>
       </c>
       <c r="G8">
-        <f>POWER(A8,2)/C8</f>
+        <f t="shared" si="0"/>
         <v>18874368</v>
       </c>
       <c r="H8">
-        <f>ROUND(G8,-3)</f>
+        <f t="shared" si="1"/>
         <v>18874000</v>
       </c>
       <c r="I8" cm="1">
@@ -3240,19 +3239,19 @@
         <v>83336</v>
       </c>
       <c r="M8">
-        <f>J8/F8</f>
+        <f t="shared" si="2"/>
         <v>1.2196620165756014</v>
       </c>
       <c r="N8">
-        <f>K8/E8</f>
+        <f t="shared" si="3"/>
         <v>1.1745380680050912</v>
       </c>
       <c r="O8">
-        <f>L8/D8</f>
+        <f t="shared" si="4"/>
         <v>1.3270908975093956</v>
       </c>
       <c r="P8">
-        <f>1/M8</f>
+        <f t="shared" si="5"/>
         <v>0.81989927242930949</v>
       </c>
       <c r="Q8" cm="1">
@@ -3268,23 +3267,27 @@
         <v>473631</v>
       </c>
       <c r="T8">
-        <f>R8/F8</f>
+        <f t="shared" si="6"/>
         <v>0.45768809336461175</v>
       </c>
       <c r="U8">
-        <f>S8/E8</f>
+        <f t="shared" si="7"/>
         <v>0.45189571967506853</v>
       </c>
       <c r="V8">
-        <f>C8*U8</f>
+        <f t="shared" si="8"/>
         <v>14.460663029602193</v>
       </c>
       <c r="W8">
-        <f>(M8-C8)/(1-C8)</f>
+        <f t="shared" si="9"/>
         <v>0.99291412849756122</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8">
+        <f t="shared" si="10"/>
+        <v>0.81408957153993233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12288</v>
       </c>
@@ -3305,11 +3308,11 @@
         <v>1312113</v>
       </c>
       <c r="G9">
-        <f>POWER(A9,2)/C9</f>
+        <f t="shared" si="0"/>
         <v>18874368</v>
       </c>
       <c r="H9">
-        <f>ROUND(G9,-3)</f>
+        <f t="shared" si="1"/>
         <v>18874000</v>
       </c>
       <c r="I9" cm="1">
@@ -3329,19 +3332,19 @@
         <v>241646</v>
       </c>
       <c r="M9">
-        <f>J9/F9</f>
+        <f t="shared" si="2"/>
         <v>4.0195920625738788</v>
       </c>
       <c r="N9">
-        <f>K9/E9</f>
+        <f t="shared" si="3"/>
         <v>4.2118769272507981</v>
       </c>
       <c r="O9">
-        <f>L9/D9</f>
+        <f t="shared" si="4"/>
         <v>3.6512344746305643</v>
       </c>
       <c r="P9">
-        <f>1/M9</f>
+        <f t="shared" si="5"/>
         <v>0.24878146449509772</v>
       </c>
       <c r="Q9" cm="1">
@@ -3357,23 +3360,27 @@
         <v>473631</v>
       </c>
       <c r="T9">
-        <f>R9/F9</f>
+        <f t="shared" si="6"/>
         <v>0.47433262226652734</v>
       </c>
       <c r="U9">
-        <f>S9/E9</f>
+        <f t="shared" si="7"/>
         <v>0.46556874602508364</v>
       </c>
       <c r="V9">
-        <f>C9*U9</f>
+        <f t="shared" si="8"/>
         <v>3.7245499682006691</v>
       </c>
       <c r="W9">
-        <f>(M9-C9)/(1-C9)</f>
+        <f t="shared" si="9"/>
         <v>0.56862970534658874</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9">
+        <f t="shared" si="10"/>
+        <v>0.14146453085154026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12288</v>
       </c>
@@ -3393,11 +3400,11 @@
         <v>805548</v>
       </c>
       <c r="G10">
-        <f>POWER(A10,2)/C10</f>
+        <f t="shared" si="0"/>
         <v>18874368</v>
       </c>
       <c r="H10">
-        <f>ROUND(G10,-3)</f>
+        <f t="shared" si="1"/>
         <v>18874000</v>
       </c>
       <c r="I10" cm="1">
@@ -3417,19 +3424,19 @@
         <v>241646</v>
       </c>
       <c r="M10">
-        <f>J10/F10</f>
+        <f t="shared" si="2"/>
         <v>6.5472932711644747</v>
       </c>
       <c r="N10">
-        <f>K10/E10</f>
+        <f t="shared" si="3"/>
         <v>6.8339322255024397</v>
       </c>
       <c r="O10">
-        <f>L10/D10</f>
+        <f t="shared" si="4"/>
         <v>5.6845844409419186</v>
       </c>
       <c r="P10">
-        <f>1/M10</f>
+        <f t="shared" si="5"/>
         <v>0.15273487204310676</v>
       </c>
       <c r="Q10" cm="1">
@@ -3445,23 +3452,27 @@
         <v>473631</v>
       </c>
       <c r="T10">
-        <f>R10/F10</f>
+        <f t="shared" si="6"/>
         <v>0.7726144190042058</v>
       </c>
       <c r="U10">
-        <f>S10/E10</f>
+        <f t="shared" si="7"/>
         <v>0.75540318760556369</v>
       </c>
       <c r="V10">
-        <f>C10*U10</f>
+        <f t="shared" si="8"/>
         <v>6.0432255008445095</v>
       </c>
       <c r="W10">
-        <f>(M10-C10)/(1-C10)</f>
+        <f t="shared" si="9"/>
         <v>0.20752953269078933</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10">
+        <f t="shared" si="10"/>
+        <v>3.1696996620693439E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6144</v>
       </c>
@@ -3481,11 +3492,11 @@
         <v>622378</v>
       </c>
       <c r="G11">
-        <f>POWER(A11,2)/C11</f>
+        <f t="shared" si="0"/>
         <v>18874368</v>
       </c>
       <c r="H11">
-        <f>ROUND(G11,-3)</f>
+        <f t="shared" si="1"/>
         <v>18874000</v>
       </c>
       <c r="I11" cm="1">
@@ -3505,19 +3516,19 @@
         <v>59656</v>
       </c>
       <c r="M11">
-        <f>J11/F11</f>
+        <f t="shared" si="2"/>
         <v>2.2390267650848843</v>
       </c>
       <c r="N11">
-        <f>K11/E11</f>
+        <f t="shared" si="3"/>
         <v>2.4064176542498275</v>
       </c>
       <c r="O11">
-        <f>L11/D11</f>
+        <f t="shared" si="4"/>
         <v>1.8676935600012523</v>
       </c>
       <c r="P11">
-        <f>1/M11</f>
+        <f t="shared" si="5"/>
         <v>0.44662261996769331</v>
       </c>
       <c r="Q11" cm="1">
@@ -3533,23 +3544,27 @@
         <v>473631</v>
       </c>
       <c r="T11">
-        <f>R11/F11</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U11">
-        <f>S11/E11</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V11">
-        <f>C11*U11</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="W11">
-        <f>(M11-C11)/(1-C11)</f>
+        <f t="shared" si="9"/>
         <v>-0.2390267650848843</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11">
+        <f t="shared" si="10"/>
+        <v>-0.10675476006461337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>24576</v>
       </c>
@@ -3570,11 +3585,11 @@
         <v>1133435</v>
       </c>
       <c r="G12">
-        <f>POWER(A12,2)/C12</f>
+        <f t="shared" si="0"/>
         <v>15099494.4</v>
       </c>
       <c r="H12">
-        <f>ROUND(G12,-3)</f>
+        <f t="shared" si="1"/>
         <v>15099000</v>
       </c>
       <c r="I12" cm="1">
@@ -3594,19 +3609,19 @@
         <v>83336</v>
       </c>
       <c r="M12">
-        <f>J12/F12</f>
+        <f t="shared" si="2"/>
         <v>1.4632802057462493</v>
       </c>
       <c r="N12">
-        <f>K12/E12</f>
+        <f t="shared" si="3"/>
         <v>1.4088794940521834</v>
       </c>
       <c r="O12">
-        <f>L12/D12</f>
+        <f t="shared" si="4"/>
         <v>1.659914351160243</v>
       </c>
       <c r="P12">
-        <f>1/M12</f>
+        <f t="shared" si="5"/>
         <v>0.68339610969453124</v>
       </c>
       <c r="Q12" cm="1">
@@ -3622,23 +3637,27 @@
         <v>873766</v>
       </c>
       <c r="T12">
-        <f>R12/F12</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U12">
-        <f>S12/E12</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V12">
-        <f>C12*U12</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="W12">
-        <f>(M12-C12)/(1-C12)</f>
+        <f t="shared" si="9"/>
         <v>0.98812102036548077</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12">
+        <f t="shared" si="10"/>
+        <v>0.67527806122516021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>24576</v>
       </c>
@@ -3659,11 +3678,11 @@
         <v>946413</v>
       </c>
       <c r="G13">
-        <f>POWER(A13,2)/C13</f>
+        <f t="shared" si="0"/>
         <v>12582912</v>
       </c>
       <c r="H13">
-        <f>ROUND(G13,-3)</f>
+        <f t="shared" si="1"/>
         <v>12583000</v>
       </c>
       <c r="I13" cm="1">
@@ -3683,19 +3702,19 @@
         <v>83336</v>
       </c>
       <c r="M13">
-        <f>J13/F13</f>
+        <f t="shared" si="2"/>
         <v>1.7524410590302542</v>
       </c>
       <c r="N13">
-        <f>K13/E13</f>
+        <f t="shared" si="3"/>
         <v>1.6639736474303</v>
       </c>
       <c r="O13">
-        <f>L13/D13</f>
+        <f t="shared" si="4"/>
         <v>1.939534991970582</v>
       </c>
       <c r="P13">
-        <f>1/M13</f>
+        <f t="shared" si="5"/>
         <v>0.57063260122047621</v>
       </c>
       <c r="Q13" cm="1">
@@ -3711,23 +3730,27 @@
         <v>739814</v>
       </c>
       <c r="T13">
-        <f>R13/F13</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U13">
-        <f>S13/E13</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V13">
-        <f>C13*U13</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="W13">
-        <f>(M13-C13)/(1-C13)</f>
+        <f t="shared" si="9"/>
         <v>0.98399061576531377</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13">
+        <f t="shared" si="10"/>
+        <v>0.56149712465069912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24576</v>
       </c>
@@ -3748,11 +3771,11 @@
         <v>778793</v>
       </c>
       <c r="G14">
-        <f>POWER(A14,2)/C14</f>
+        <f t="shared" si="0"/>
         <v>10785353.142857144</v>
       </c>
       <c r="H14">
-        <f>ROUND(G14,-3)</f>
+        <f t="shared" si="1"/>
         <v>10785000</v>
       </c>
       <c r="I14" cm="1">
@@ -3772,19 +3795,19 @@
         <v>83336</v>
       </c>
       <c r="M14">
-        <f>J14/F14</f>
+        <f t="shared" si="2"/>
         <v>2.1296198091148737</v>
       </c>
       <c r="N14">
-        <f>K14/E14</f>
+        <f t="shared" si="3"/>
         <v>2.1001656547114349</v>
       </c>
       <c r="O14">
-        <f>L14/D14</f>
+        <f t="shared" si="4"/>
         <v>2.1842581186276306</v>
       </c>
       <c r="P14">
-        <f>1/M14</f>
+        <f t="shared" si="5"/>
         <v>0.46956738274125392</v>
       </c>
       <c r="Q14" cm="1">
@@ -3800,23 +3823,27 @@
         <v>586159</v>
       </c>
       <c r="T14">
-        <f>R14/F14</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U14">
-        <f>S14/E14</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V14">
-        <f>C14*U14</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="W14">
-        <f>(M14-C14)/(1-C14)</f>
+        <f t="shared" si="9"/>
         <v>0.9794614580160933</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14">
+        <f t="shared" si="10"/>
+        <v>0.45992315333654948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>24576</v>
       </c>
@@ -3837,11 +3864,11 @@
         <v>752438</v>
       </c>
       <c r="G15">
-        <f>POWER(A15,2)/C15</f>
+        <f t="shared" si="0"/>
         <v>9437184</v>
       </c>
       <c r="H15">
-        <f>ROUND(G15,-3)</f>
+        <f t="shared" si="1"/>
         <v>9437000</v>
       </c>
       <c r="I15" cm="1">
@@ -3861,19 +3888,19 @@
         <v>83336</v>
       </c>
       <c r="M15">
-        <f>J15/F15</f>
+        <f t="shared" si="2"/>
         <v>2.2042121742921013</v>
       </c>
       <c r="N15">
-        <f>K15/E15</f>
+        <f t="shared" si="3"/>
         <v>2.122152577376458</v>
       </c>
       <c r="O15">
-        <f>L15/D15</f>
+        <f t="shared" si="4"/>
         <v>2.4353721616645725</v>
       </c>
       <c r="P15">
-        <f>1/M15</f>
+        <f t="shared" si="5"/>
         <v>0.4536768336837434</v>
       </c>
       <c r="Q15" cm="1">
@@ -3889,23 +3916,27 @@
         <v>324922</v>
       </c>
       <c r="T15">
-        <f>R15/F15</f>
+        <f t="shared" si="6"/>
         <v>0.54262942594605801</v>
       </c>
       <c r="U15">
-        <f>S15/E15</f>
+        <f t="shared" si="7"/>
         <v>0.56012729147057505</v>
       </c>
       <c r="V15">
-        <f>C15*U15</f>
+        <f t="shared" si="8"/>
         <v>35.848146654116803</v>
       </c>
       <c r="W15">
-        <f>(M15-C15)/(1-C15)</f>
+        <f t="shared" si="9"/>
         <v>0.98088552104298254</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>0.44500503739300917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12288</v>
       </c>
@@ -3926,11 +3957,11 @@
         <v>671345</v>
       </c>
       <c r="G16">
-        <f>POWER(A16,2)/C16</f>
+        <f t="shared" si="0"/>
         <v>9437184</v>
       </c>
       <c r="H16">
-        <f>ROUND(G16,-3)</f>
+        <f t="shared" si="1"/>
         <v>9437000</v>
       </c>
       <c r="I16" cm="1">
@@ -3950,19 +3981,19 @@
         <v>241646</v>
       </c>
       <c r="M16">
-        <f>J16/F16</f>
+        <f t="shared" si="2"/>
         <v>7.8561082602834604</v>
       </c>
       <c r="N16">
-        <f>K16/E16</f>
+        <f t="shared" si="3"/>
         <v>8.3742565936696867</v>
       </c>
       <c r="O16">
-        <f>L16/D16</f>
+        <f t="shared" si="4"/>
         <v>7.0258184567075652</v>
       </c>
       <c r="P16">
-        <f>1/M16</f>
+        <f t="shared" si="5"/>
         <v>0.12728948823878841</v>
       </c>
       <c r="Q16" cm="1">
@@ -3978,23 +4009,27 @@
         <v>324922</v>
       </c>
       <c r="T16">
-        <f>R16/F16</f>
+        <f t="shared" si="6"/>
         <v>0.60817463450237952</v>
       </c>
       <c r="U16">
-        <f>S16/E16</f>
+        <f t="shared" si="7"/>
         <v>0.63502877859536999</v>
       </c>
       <c r="V16">
-        <f>C16*U16</f>
+        <f t="shared" si="8"/>
         <v>10.16046045752592</v>
       </c>
       <c r="W16">
         <f>(M16-C16)/(1-C16)</f>
         <v>0.54292611598110274</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>6.9108787454707638E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12288</v>
       </c>
@@ -4014,11 +4049,11 @@
         <v>698187</v>
       </c>
       <c r="G17">
-        <f>POWER(A17,2)/C17</f>
+        <f t="shared" si="0"/>
         <v>9437184</v>
       </c>
       <c r="H17">
-        <f>ROUND(G17,-3)</f>
+        <f t="shared" si="1"/>
         <v>9437000</v>
       </c>
       <c r="I17" cm="1">
@@ -4038,19 +4073,19 @@
         <v>241646</v>
       </c>
       <c r="M17">
-        <f>J17/F17</f>
+        <f t="shared" si="2"/>
         <v>7.5540779189529452</v>
       </c>
       <c r="N17">
-        <f>K17/E17</f>
+        <f t="shared" si="3"/>
         <v>7.9255942141575568</v>
       </c>
       <c r="O17">
-        <f>L17/D17</f>
+        <f t="shared" si="4"/>
         <v>5.7895922181225741</v>
       </c>
       <c r="P17">
-        <f>1/M17</f>
+        <f t="shared" si="5"/>
         <v>0.13237883044481594</v>
       </c>
       <c r="Q17" cm="1">
@@ -4066,23 +4101,27 @@
         <v>324922</v>
       </c>
       <c r="T17">
-        <f>R17/F17</f>
+        <f t="shared" si="6"/>
         <v>0.58479318577974093</v>
       </c>
       <c r="U17">
-        <f>S17/E17</f>
+        <f t="shared" si="7"/>
         <v>0.60100623346836102</v>
       </c>
       <c r="V17">
-        <f>C17*U17</f>
+        <f t="shared" si="8"/>
         <v>9.6160997354937763</v>
       </c>
       <c r="W17">
-        <f>(M17-C17)/(1-C17)</f>
+        <f t="shared" si="9"/>
         <v>0.56306147206980361</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>7.4537419141136999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6144</v>
       </c>
@@ -4102,11 +4141,11 @@
         <v>346624</v>
       </c>
       <c r="G18">
-        <f>POWER(A18,2)/C18</f>
+        <f t="shared" si="0"/>
         <v>9437184</v>
       </c>
       <c r="H18">
-        <f>ROUND(G18,-3)</f>
+        <f t="shared" si="1"/>
         <v>9437000</v>
       </c>
       <c r="I18" cm="1">
@@ -4126,19 +4165,19 @@
         <v>59656</v>
       </c>
       <c r="M18">
-        <f>J18/F18</f>
+        <f t="shared" si="2"/>
         <v>4.0202669174667651</v>
       </c>
       <c r="N18">
-        <f>K18/E18</f>
+        <f t="shared" si="3"/>
         <v>4.3292867290117218</v>
       </c>
       <c r="O18">
-        <f>L18/D18</f>
+        <f t="shared" si="4"/>
         <v>2.91559552319046</v>
       </c>
       <c r="P18">
-        <f>1/M18</f>
+        <f t="shared" si="5"/>
         <v>0.24873970324092712</v>
       </c>
       <c r="Q18" cm="1">
@@ -4154,23 +4193,27 @@
         <v>324922</v>
       </c>
       <c r="T18">
-        <f>R18/F18</f>
+        <f t="shared" si="6"/>
         <v>1.1779190131093058</v>
       </c>
       <c r="U18">
-        <f>S18/E18</f>
+        <f t="shared" si="7"/>
         <v>1.23419659203999</v>
       </c>
       <c r="V18">
-        <f>C18*U18</f>
+        <f t="shared" si="8"/>
         <v>4.93678636815996</v>
       </c>
       <c r="W18">
-        <f>(M18-C18)/(1-C18)</f>
+        <f t="shared" si="9"/>
         <v>-6.7556391555883737E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18">
+        <f t="shared" si="10"/>
+        <v>-1.6803956787638426E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3072</v>
       </c>
@@ -4190,11 +4233,11 @@
         <v>408295</v>
       </c>
       <c r="G19">
-        <f>POWER(A19,2)/C19</f>
+        <f t="shared" si="0"/>
         <v>9437184</v>
       </c>
       <c r="H19">
-        <f>ROUND(G19,-3)</f>
+        <f t="shared" si="1"/>
         <v>9437000</v>
       </c>
       <c r="I19" cm="1">
@@ -4214,19 +4257,19 @@
         <v>17844</v>
       </c>
       <c r="M19">
-        <f>J19/F19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N19">
-        <f>K19/E19</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O19">
-        <f>L19/D19</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P19">
-        <f>1/M19</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q19" cm="1">
@@ -4242,23 +4285,27 @@
         <v>324922</v>
       </c>
       <c r="T19">
-        <f>R19/F19</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U19">
-        <f>S19/E19</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V19">
-        <f>C19*U19</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W19" t="e">
-        <f>(M19-C19)/(1-C19)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>24576</v>
       </c>
@@ -4279,11 +4326,11 @@
         <v>649736</v>
       </c>
       <c r="G20">
-        <f>POWER(A20,2)/C20</f>
+        <f t="shared" si="0"/>
         <v>8388608</v>
       </c>
       <c r="H20">
-        <f>ROUND(G20,-3)</f>
+        <f t="shared" si="1"/>
         <v>8389000</v>
       </c>
       <c r="I20" cm="1">
@@ -4303,19 +4350,19 @@
         <v>83336</v>
       </c>
       <c r="M20">
-        <f>J20/F20</f>
+        <f t="shared" si="2"/>
         <v>2.5526259896327121</v>
       </c>
       <c r="N20">
-        <f>K20/E20</f>
+        <f t="shared" si="3"/>
         <v>2.4763306170152419</v>
       </c>
       <c r="O20">
-        <f>L20/D20</f>
+        <f t="shared" si="4"/>
         <v>2.7523614505581611</v>
       </c>
       <c r="P20">
-        <f>1/M20</f>
+        <f t="shared" si="5"/>
         <v>0.39175343511404359</v>
       </c>
       <c r="Q20" cm="1">
@@ -4331,23 +4378,27 @@
         <v>497119</v>
       </c>
       <c r="T20">
-        <f>R20/F20</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U20">
-        <f>S20/E20</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V20">
-        <f>C20*U20</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="W20">
-        <f>(M20-C20)/(1-C20)</f>
+        <f t="shared" si="9"/>
         <v>0.97813202831503221</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20">
+        <f t="shared" si="10"/>
+        <v>0.3831865820874808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24576</v>
       </c>
@@ -4368,11 +4419,11 @@
         <v>584031</v>
       </c>
       <c r="G21">
-        <f>POWER(A21,2)/C21</f>
+        <f t="shared" si="0"/>
         <v>7549747.2000000002</v>
       </c>
       <c r="H21">
-        <f>ROUND(G21,-3)</f>
+        <f t="shared" si="1"/>
         <v>7550000</v>
       </c>
       <c r="I21" cm="1">
@@ -4392,19 +4443,19 @@
         <v>83336</v>
       </c>
       <c r="M21">
-        <f>J21/F21</f>
+        <f t="shared" si="2"/>
         <v>2.8398030241545396</v>
       </c>
       <c r="N21">
-        <f>K21/E21</f>
+        <f t="shared" si="3"/>
         <v>2.8112662482986672</v>
       </c>
       <c r="O21">
-        <f>L21/D21</f>
+        <f t="shared" si="4"/>
         <v>2.9177228485400182</v>
       </c>
       <c r="P21">
-        <f>1/M21</f>
+        <f t="shared" si="5"/>
         <v>0.35213709947284744</v>
       </c>
       <c r="Q21" cm="1">
@@ -4420,23 +4471,27 @@
         <v>437892</v>
       </c>
       <c r="T21">
-        <f>R21/F21</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U21">
-        <f>S21/E21</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V21">
-        <f>C21*U21</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="W21">
-        <f>(M21-C21)/(1-C21)</f>
+        <f t="shared" si="9"/>
         <v>0.97671135412462617</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21">
+        <f t="shared" si="10"/>
+        <v>0.34393630326364294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12288</v>
       </c>
@@ -4457,11 +4512,11 @@
         <v>545644</v>
       </c>
       <c r="G22">
-        <f>POWER(A22,2)/C22</f>
+        <f t="shared" si="0"/>
         <v>6291456</v>
       </c>
       <c r="H22">
-        <f>ROUND(G22,-3)</f>
+        <f t="shared" si="1"/>
         <v>6291000</v>
       </c>
       <c r="I22" cm="1">
@@ -4481,19 +4536,19 @@
         <v>241646</v>
       </c>
       <c r="M22">
-        <f>J22/F22</f>
+        <f t="shared" si="2"/>
         <v>9.6659341988549308</v>
       </c>
       <c r="N22">
-        <f>K22/E22</f>
+        <f t="shared" si="3"/>
         <v>10.01344687852005</v>
       </c>
       <c r="O22">
-        <f>L22/D22</f>
+        <f t="shared" si="4"/>
         <v>9.6836579305922896</v>
       </c>
       <c r="P22">
-        <f>1/M22</f>
+        <f t="shared" si="5"/>
         <v>0.10345611499387865</v>
       </c>
       <c r="Q22" cm="1">
@@ -4509,23 +4564,27 @@
         <v>427906</v>
       </c>
       <c r="T22">
-        <f>R22/F22</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U22">
-        <f>S22/E22</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V22">
-        <f>C22*U22</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="W22">
-        <f>(M22-C22)/(1-C22)</f>
+        <f t="shared" si="9"/>
         <v>0.6232202522236987</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22">
+        <f t="shared" si="10"/>
+        <v>6.447594608056903E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>12288</v>
       </c>
@@ -4546,11 +4605,11 @@
         <v>355772</v>
       </c>
       <c r="G23">
-        <f>POWER(A23,2)/C23</f>
+        <f t="shared" si="0"/>
         <v>4718592</v>
       </c>
       <c r="H23">
-        <f>ROUND(G23,-3)</f>
+        <f t="shared" si="1"/>
         <v>4719000</v>
       </c>
       <c r="I23" cm="1">
@@ -4570,19 +4629,19 @@
         <v>241646</v>
       </c>
       <c r="M23">
-        <f>J23/F23</f>
+        <f t="shared" si="2"/>
         <v>14.824547744060803</v>
       </c>
       <c r="N23">
-        <f>K23/E23</f>
+        <f t="shared" si="3"/>
         <v>16.390410906503661</v>
       </c>
       <c r="O23">
-        <f>L23/D23</f>
+        <f t="shared" si="4"/>
         <v>13.653859193129167</v>
       </c>
       <c r="P23">
-        <f>1/M23</f>
+        <f t="shared" si="5"/>
         <v>6.745568345588368E-2</v>
       </c>
       <c r="Q23" cm="1">
@@ -4598,23 +4657,27 @@
         <v>144857</v>
       </c>
       <c r="T23">
-        <f>R23/F23</f>
+        <f t="shared" si="6"/>
         <v>0.5483821098906041</v>
       </c>
       <c r="U23">
-        <f>S23/E23</f>
+        <f t="shared" si="7"/>
         <v>0.55411174269954322</v>
       </c>
       <c r="V23">
-        <f>C23*U23</f>
+        <f t="shared" si="8"/>
         <v>17.731575766385383</v>
       </c>
       <c r="W23">
-        <f>(M23-C23)/(1-C23)</f>
+        <f t="shared" si="9"/>
         <v>0.55404684696578055</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23">
+        <f t="shared" si="10"/>
+        <v>3.7373608728654119E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6144</v>
       </c>
@@ -4635,11 +4698,11 @@
         <v>342507</v>
       </c>
       <c r="G24">
-        <f>POWER(A24,2)/C24</f>
+        <f t="shared" si="0"/>
         <v>4718592</v>
       </c>
       <c r="H24">
-        <f>ROUND(G24,-3)</f>
+        <f t="shared" si="1"/>
         <v>4719000</v>
       </c>
       <c r="I24" cm="1">
@@ -4659,19 +4722,19 @@
         <v>59656</v>
       </c>
       <c r="M24">
-        <f>J24/F24</f>
+        <f t="shared" si="2"/>
         <v>4.0685912988639652</v>
       </c>
       <c r="N24">
-        <f>K24/E24</f>
+        <f t="shared" si="3"/>
         <v>4.3630287486123338</v>
       </c>
       <c r="O24">
-        <f>L24/D24</f>
+        <f t="shared" si="4"/>
         <v>2.9825017498250177</v>
       </c>
       <c r="P24">
-        <f>1/M24</f>
+        <f t="shared" si="5"/>
         <v>0.24578531647531682</v>
       </c>
       <c r="Q24" cm="1">
@@ -4687,23 +4750,27 @@
         <v>144857</v>
       </c>
       <c r="T24">
-        <f>R24/F24</f>
+        <f t="shared" si="6"/>
         <v>0.56962047491000178</v>
       </c>
       <c r="U24">
-        <f>S24/E24</f>
+        <f t="shared" si="7"/>
         <v>0.55451900623971218</v>
       </c>
       <c r="V24">
-        <f>C24*U24</f>
+        <f t="shared" si="8"/>
         <v>4.4361520499176974</v>
       </c>
       <c r="W24">
-        <f>(M24-C24)/(1-C24)</f>
+        <f t="shared" si="9"/>
         <v>0.56162981444800497</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24">
+        <f t="shared" si="10"/>
+        <v>0.13804036168607636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6144</v>
       </c>
@@ -4723,11 +4790,11 @@
         <v>231877</v>
       </c>
       <c r="G25">
-        <f>POWER(A25,2)/C25</f>
+        <f t="shared" si="0"/>
         <v>4718592</v>
       </c>
       <c r="H25">
-        <f>ROUND(G25,-3)</f>
+        <f t="shared" si="1"/>
         <v>4719000</v>
       </c>
       <c r="I25" cm="1">
@@ -4747,19 +4814,19 @@
         <v>59656</v>
       </c>
       <c r="M25">
-        <f>J25/F25</f>
+        <f t="shared" si="2"/>
         <v>6.0097422340292486</v>
       </c>
       <c r="N25">
-        <f>K25/E25</f>
+        <f t="shared" si="3"/>
         <v>6.6474238589042214</v>
       </c>
       <c r="O25">
-        <f>L25/D25</f>
+        <f t="shared" si="4"/>
         <v>3.3766910058300788</v>
       </c>
       <c r="P25">
-        <f>1/M25</f>
+        <f t="shared" si="5"/>
         <v>0.16639648774578925</v>
       </c>
       <c r="Q25" cm="1">
@@ -4775,23 +4842,27 @@
         <v>144857</v>
       </c>
       <c r="T25">
-        <f>R25/F25</f>
+        <f t="shared" si="6"/>
         <v>0.84139004730956501</v>
       </c>
       <c r="U25">
-        <f>S25/E25</f>
+        <f t="shared" si="7"/>
         <v>0.8448541333737708</v>
       </c>
       <c r="V25">
-        <f>C25*U25</f>
+        <f t="shared" si="8"/>
         <v>6.7588330669901664</v>
       </c>
       <c r="W25">
-        <f>(M25-C25)/(1-C25)</f>
+        <f t="shared" si="9"/>
         <v>0.28432253799582163</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25">
+        <f t="shared" si="10"/>
+        <v>4.7310271709473425E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3072</v>
       </c>
@@ -4811,11 +4882,11 @@
         <v>195099</v>
       </c>
       <c r="G26">
-        <f>POWER(A26,2)/C26</f>
+        <f t="shared" si="0"/>
         <v>4718592</v>
       </c>
       <c r="H26">
-        <f>ROUND(G26,-3)</f>
+        <f t="shared" si="1"/>
         <v>4719000</v>
       </c>
       <c r="I26" cm="1">
@@ -4835,19 +4906,19 @@
         <v>17844</v>
       </c>
       <c r="M26">
-        <f>J26/F26</f>
+        <f t="shared" si="2"/>
         <v>2.092758035663945</v>
       </c>
       <c r="N26">
-        <f>K26/E26</f>
+        <f t="shared" si="3"/>
         <v>2.2430534941355957</v>
       </c>
       <c r="O26">
-        <f>L26/D26</f>
+        <f t="shared" si="4"/>
         <v>1.7762293450129405</v>
       </c>
       <c r="P26">
-        <f>1/M26</f>
+        <f t="shared" si="5"/>
         <v>0.47783832767974133</v>
       </c>
       <c r="Q26" cm="1">
@@ -4863,23 +4934,27 @@
         <v>144857</v>
       </c>
       <c r="T26">
-        <f>R26/F26</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U26">
-        <f>S26/E26</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V26">
-        <f>C26*U26</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="W26">
-        <f>(M26-C26)/(1-C26)</f>
+        <f t="shared" si="9"/>
         <v>-9.2758035663945027E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26">
+        <f t="shared" si="10"/>
+        <v>-4.4323344640517348E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>12288</v>
       </c>
@@ -4900,11 +4975,11 @@
         <v>280153</v>
       </c>
       <c r="G27">
-        <f>POWER(A27,2)/C27</f>
+        <f t="shared" si="0"/>
         <v>3774873.6000000001</v>
       </c>
       <c r="H27">
-        <f>ROUND(G27,-3)</f>
+        <f t="shared" si="1"/>
         <v>3775000</v>
       </c>
       <c r="I27" cm="1">
@@ -4924,19 +4999,19 @@
         <v>241646</v>
       </c>
       <c r="M27">
-        <f>J27/F27</f>
+        <f t="shared" si="2"/>
         <v>18.825995081259169</v>
       </c>
       <c r="N27">
-        <f>K27/E27</f>
+        <f t="shared" si="3"/>
         <v>21.987951003484355</v>
       </c>
       <c r="O27">
-        <f>L27/D27</f>
+        <f t="shared" si="4"/>
         <v>15.407166539148177</v>
       </c>
       <c r="P27">
-        <f>1/M27</f>
+        <f t="shared" si="5"/>
         <v>5.3118042137144522E-2</v>
       </c>
       <c r="Q27" cm="1">
@@ -4952,23 +5027,27 @@
         <v>194871</v>
       </c>
       <c r="T27">
-        <f>R27/F27</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U27">
-        <f>S27/E27</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V27">
-        <f>C27*U27</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="W27">
-        <f>(M27-C27)/(1-C27)</f>
+        <f t="shared" si="9"/>
         <v>0.5429232030446367</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27">
+        <f t="shared" si="10"/>
+        <v>2.8839017576558483E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12288</v>
       </c>
@@ -4989,11 +5068,11 @@
         <v>248521</v>
       </c>
       <c r="G28">
-        <f>POWER(A28,2)/C28</f>
+        <f t="shared" si="0"/>
         <v>3145728</v>
       </c>
       <c r="H28">
-        <f>ROUND(G28,-3)</f>
+        <f t="shared" si="1"/>
         <v>3146000</v>
       </c>
       <c r="I28" cm="1">
@@ -5013,19 +5092,19 @@
         <v>241646</v>
       </c>
       <c r="M28">
-        <f>J28/F28</f>
+        <f t="shared" si="2"/>
         <v>21.222186455068183</v>
       </c>
       <c r="N28">
-        <f>K28/E28</f>
+        <f t="shared" si="3"/>
         <v>24.280418423319279</v>
       </c>
       <c r="O28">
-        <f>L28/D28</f>
+        <f t="shared" si="4"/>
         <v>18.465994192266546</v>
       </c>
       <c r="P28">
-        <f>1/M28</f>
+        <f t="shared" si="5"/>
         <v>4.7120498263325018E-2</v>
       </c>
       <c r="Q28" cm="1">
@@ -5041,23 +5120,27 @@
         <v>176472</v>
       </c>
       <c r="T28">
-        <f>R28/F28</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U28">
-        <f>S28/E28</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V28">
-        <f>C28*U28</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="W28">
-        <f>(M28-C28)/(1-C28)</f>
+        <f t="shared" si="9"/>
         <v>0.56974071372195356</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28">
+        <f t="shared" si="10"/>
+        <v>2.6846466311480872E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>12288</v>
       </c>
@@ -5078,11 +5161,11 @@
         <v>244029</v>
       </c>
       <c r="G29">
-        <f>POWER(A29,2)/C29</f>
+        <f t="shared" si="0"/>
         <v>2696338.2857142859</v>
       </c>
       <c r="H29">
-        <f>ROUND(G29,-3)</f>
+        <f t="shared" si="1"/>
         <v>2696000</v>
       </c>
       <c r="I29" cm="1">
@@ -5102,19 +5185,19 @@
         <v>241646</v>
       </c>
       <c r="M29">
-        <f>J29/F29</f>
+        <f t="shared" si="2"/>
         <v>21.612836998881281</v>
       </c>
       <c r="N29">
-        <f>K29/E29</f>
+        <f t="shared" si="3"/>
         <v>23.986553511649518</v>
       </c>
       <c r="O29">
-        <f>L29/D29</f>
+        <f t="shared" si="4"/>
         <v>20.979857614169127</v>
       </c>
       <c r="P29">
-        <f>1/M29</f>
+        <f t="shared" si="5"/>
         <v>4.6268798494698393E-2</v>
       </c>
       <c r="Q29" cm="1">
@@ -5130,23 +5213,27 @@
         <v>178634</v>
       </c>
       <c r="T29">
-        <f>R29/F29</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U29">
-        <f>S29/E29</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V29">
-        <f>C29*U29</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="W29">
-        <f>(M29-C29)/(1-C29)</f>
+        <f t="shared" si="9"/>
         <v>0.62522114547488583</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29">
+        <f t="shared" si="10"/>
+        <v>2.8928231194602003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12288</v>
       </c>
@@ -5167,11 +5254,11 @@
         <v>263412</v>
       </c>
       <c r="G30">
-        <f>POWER(A30,2)/C30</f>
+        <f t="shared" si="0"/>
         <v>2359296</v>
       </c>
       <c r="H30">
-        <f>ROUND(G30,-3)</f>
+        <f t="shared" si="1"/>
         <v>2359000</v>
       </c>
       <c r="I30" cm="1">
@@ -5191,19 +5278,19 @@
         <v>241646</v>
       </c>
       <c r="M30">
-        <f>J30/F30</f>
+        <f t="shared" si="2"/>
         <v>20.022470502482804</v>
       </c>
       <c r="N30">
-        <f>K30/E30</f>
+        <f t="shared" si="3"/>
         <v>21.33202232367335</v>
       </c>
       <c r="O30">
-        <f>L30/D30</f>
+        <f t="shared" si="4"/>
         <v>21.075004360718648</v>
       </c>
       <c r="P30">
-        <f>1/M30</f>
+        <f t="shared" si="5"/>
         <v>4.9943886788396022E-2</v>
       </c>
       <c r="Q30" cm="1">
@@ -5219,23 +5306,27 @@
         <v>75449</v>
       </c>
       <c r="T30">
-        <f>R30/F30</f>
+        <f t="shared" si="6"/>
         <v>0.39058205396868784</v>
       </c>
       <c r="U30">
-        <f>S30/E30</f>
+        <f t="shared" si="7"/>
         <v>0.37562418165615369</v>
       </c>
       <c r="V30">
-        <f>C30*U30</f>
+        <f t="shared" si="8"/>
         <v>24.039947625993836</v>
       </c>
       <c r="W30">
-        <f>(M30-C30)/(1-C30)</f>
+        <f t="shared" si="9"/>
         <v>0.69805602377011422</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30">
+        <f t="shared" si="10"/>
+        <v>3.4863631023132467E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6144</v>
       </c>
@@ -5256,11 +5347,11 @@
         <v>186638</v>
       </c>
       <c r="G31">
-        <f>POWER(A31,2)/C31</f>
+        <f t="shared" si="0"/>
         <v>2359296</v>
       </c>
       <c r="H31">
-        <f>ROUND(G31,-3)</f>
+        <f t="shared" si="1"/>
         <v>2359000</v>
       </c>
       <c r="I31" cm="1">
@@ -5280,19 +5371,19 @@
         <v>59656</v>
       </c>
       <c r="M31">
-        <f>J31/F31</f>
+        <f t="shared" si="2"/>
         <v>7.4664377029329501</v>
       </c>
       <c r="N31">
-        <f>K31/E31</f>
+        <f t="shared" si="3"/>
         <v>8.3488063757627256</v>
       </c>
       <c r="O31">
-        <f>L31/D31</f>
+        <f t="shared" si="4"/>
         <v>5.0944491887275829</v>
       </c>
       <c r="P31">
-        <f>1/M31</f>
+        <f t="shared" si="5"/>
         <v>0.13393267844546297</v>
       </c>
       <c r="Q31" cm="1">
@@ -5308,23 +5399,27 @@
         <v>75449</v>
       </c>
       <c r="T31">
-        <f>R31/F31</f>
+        <f t="shared" si="6"/>
         <v>0.55124894180177675</v>
       </c>
       <c r="U31">
-        <f>S31/E31</f>
+        <f t="shared" si="7"/>
         <v>0.55267109590746943</v>
       </c>
       <c r="V31">
-        <f>C31*U31</f>
+        <f t="shared" si="8"/>
         <v>8.8427375345195109</v>
       </c>
       <c r="W31">
-        <f>(M31-C31)/(1-C31)</f>
+        <f t="shared" si="9"/>
         <v>0.56890415313780329</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31">
+        <f t="shared" si="10"/>
+        <v>7.6194857008493835E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6144</v>
       </c>
@@ -5344,11 +5439,11 @@
         <v>201848</v>
       </c>
       <c r="G32">
-        <f>POWER(A32,2)/C32</f>
+        <f t="shared" si="0"/>
         <v>2359296</v>
       </c>
       <c r="H32">
-        <f>ROUND(G32,-3)</f>
+        <f t="shared" si="1"/>
         <v>2359000</v>
       </c>
       <c r="I32" cm="1">
@@ -5368,19 +5463,19 @@
         <v>59656</v>
       </c>
       <c r="M32">
-        <f>J32/F32</f>
+        <f t="shared" si="2"/>
         <v>6.9038137608497481</v>
       </c>
       <c r="N32">
-        <f>K32/E32</f>
+        <f t="shared" si="3"/>
         <v>7.6375661730215105</v>
       </c>
       <c r="O32">
-        <f>L32/D32</f>
+        <f t="shared" si="4"/>
         <v>4.374248423522511</v>
       </c>
       <c r="P32">
-        <f>1/M32</f>
+        <f t="shared" si="5"/>
         <v>0.14484747628489272</v>
       </c>
       <c r="Q32" cm="1">
@@ -5396,23 +5491,27 @@
         <v>75449</v>
       </c>
       <c r="T32">
-        <f>R32/F32</f>
+        <f t="shared" si="6"/>
         <v>0.50971027704014904</v>
       </c>
       <c r="U32">
-        <f>S32/E32</f>
+        <f t="shared" si="7"/>
         <v>0.50558868860148765</v>
       </c>
       <c r="V32">
-        <f>C32*U32</f>
+        <f t="shared" si="8"/>
         <v>8.0894190176238023</v>
       </c>
       <c r="W32">
-        <f>(M32-C32)/(1-C32)</f>
+        <f t="shared" si="9"/>
         <v>0.60641241594335016</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32">
+        <f t="shared" si="10"/>
+        <v>8.7837308037218911E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3072</v>
       </c>
@@ -5432,11 +5531,11 @@
         <v>121231</v>
       </c>
       <c r="G33">
-        <f>POWER(A33,2)/C33</f>
+        <f t="shared" si="0"/>
         <v>2359296</v>
       </c>
       <c r="H33">
-        <f>ROUND(G33,-3)</f>
+        <f t="shared" si="1"/>
         <v>2359000</v>
       </c>
       <c r="I33" cm="1">
@@ -5456,19 +5555,19 @@
         <v>17844</v>
       </c>
       <c r="M33">
-        <f>J33/F33</f>
+        <f t="shared" si="2"/>
         <v>3.3679091981423892</v>
       </c>
       <c r="N33">
-        <f>K33/E33</f>
+        <f t="shared" si="3"/>
         <v>3.6016804487108431</v>
       </c>
       <c r="O33">
-        <f>L33/D33</f>
+        <f t="shared" si="4"/>
         <v>2.3706656038262257</v>
       </c>
       <c r="P33">
-        <f>1/M33</f>
+        <f t="shared" si="5"/>
         <v>0.29692011903158255</v>
       </c>
       <c r="Q33" cm="1">
@@ -5484,23 +5583,27 @@
         <v>75449</v>
       </c>
       <c r="T33">
-        <f>R33/F33</f>
+        <f t="shared" si="6"/>
         <v>0.84866082107711727</v>
       </c>
       <c r="U33">
-        <f>S33/E33</f>
+        <f t="shared" si="7"/>
         <v>0.83633360675726609</v>
       </c>
       <c r="V33">
-        <f>C33*U33</f>
+        <f t="shared" si="8"/>
         <v>3.3453344270290644</v>
       </c>
       <c r="W33">
-        <f>(M33-C33)/(1-C33)</f>
+        <f t="shared" si="9"/>
         <v>0.21069693395253694</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33">
+        <f t="shared" si="10"/>
+        <v>6.2560158708776736E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1536</v>
       </c>
@@ -5520,11 +5623,11 @@
         <v>102884</v>
       </c>
       <c r="G34">
-        <f>POWER(A34,2)/C34</f>
+        <f t="shared" ref="G34:G65" si="11">POWER(A34,2)/C34</f>
         <v>2359296</v>
       </c>
       <c r="H34">
-        <f>ROUND(G34,-3)</f>
+        <f t="shared" ref="H34:H65" si="12">ROUND(G34,-3)</f>
         <v>2359000</v>
       </c>
       <c r="I34" cm="1">
@@ -5544,19 +5647,19 @@
         <v>5588</v>
       </c>
       <c r="M34">
-        <f>J34/F34</f>
+        <f t="shared" ref="M34:M65" si="13">J34/F34</f>
         <v>1</v>
       </c>
       <c r="N34">
-        <f>K34/E34</f>
+        <f t="shared" ref="N34:N65" si="14">K34/E34</f>
         <v>1</v>
       </c>
       <c r="O34">
-        <f>L34/D34</f>
+        <f t="shared" ref="O34:O65" si="15">L34/D34</f>
         <v>1</v>
       </c>
       <c r="P34">
-        <f>1/M34</f>
+        <f t="shared" ref="P34:P65" si="16">1/M34</f>
         <v>1</v>
       </c>
       <c r="Q34" cm="1">
@@ -5572,23 +5675,27 @@
         <v>75449</v>
       </c>
       <c r="T34">
-        <f>R34/F34</f>
+        <f t="shared" ref="T34:T65" si="17">R34/F34</f>
         <v>1</v>
       </c>
       <c r="U34">
-        <f>S34/E34</f>
+        <f t="shared" ref="U34:U65" si="18">S34/E34</f>
         <v>1</v>
       </c>
       <c r="V34">
-        <f>C34*U34</f>
+        <f t="shared" ref="V34:V65" si="19">C34*U34</f>
         <v>1</v>
       </c>
       <c r="W34" t="e">
-        <f>(M34-C34)/(1-C34)</f>
+        <f t="shared" ref="W34:W65" si="20">(M34-C34)/(1-C34)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>12288</v>
       </c>
@@ -5609,11 +5716,11 @@
         <v>209469</v>
       </c>
       <c r="G35">
-        <f>POWER(A35,2)/C35</f>
+        <f t="shared" si="11"/>
         <v>2097152</v>
       </c>
       <c r="H35">
-        <f>ROUND(G35,-3)</f>
+        <f t="shared" si="12"/>
         <v>2097000</v>
       </c>
       <c r="I35" cm="1">
@@ -5633,19 +5740,19 @@
         <v>241646</v>
       </c>
       <c r="M35">
-        <f>J35/F35</f>
+        <f t="shared" si="13"/>
         <v>25.178709021382637</v>
       </c>
       <c r="N35">
-        <f>K35/E35</f>
+        <f t="shared" si="14"/>
         <v>28.228193844207862</v>
       </c>
       <c r="O35">
-        <f>L35/D35</f>
+        <f t="shared" si="15"/>
         <v>23.852137005231469</v>
       </c>
       <c r="P35">
-        <f>1/M35</f>
+        <f t="shared" si="16"/>
         <v>3.9716095021026104E-2</v>
       </c>
       <c r="Q35" cm="1">
@@ -5661,23 +5768,27 @@
         <v>151792</v>
       </c>
       <c r="T35">
-        <f>R35/F35</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U35">
-        <f>S35/E35</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V35">
-        <f>C35*U35</f>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="W35">
-        <f>(M35-C35)/(1-C35)</f>
+        <f t="shared" si="20"/>
         <v>0.65945480251573751</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35">
+        <f t="shared" si="10"/>
+        <v>2.6190969598787035E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>12288</v>
       </c>
@@ -5698,11 +5809,11 @@
         <v>205280</v>
       </c>
       <c r="G36">
-        <f>POWER(A36,2)/C36</f>
+        <f t="shared" si="11"/>
         <v>1887436.8</v>
       </c>
       <c r="H36">
-        <f>ROUND(G36,-3)</f>
+        <f t="shared" si="12"/>
         <v>1887000</v>
       </c>
       <c r="I36" cm="1">
@@ -5722,19 +5833,19 @@
         <v>241646</v>
       </c>
       <c r="M36">
-        <f>J36/F36</f>
+        <f t="shared" si="13"/>
         <v>25.692512665627437</v>
       </c>
       <c r="N36">
-        <f>K36/E36</f>
+        <f t="shared" si="14"/>
         <v>30.226685290216992</v>
       </c>
       <c r="O36">
-        <f>L36/D36</f>
+        <f t="shared" si="15"/>
         <v>20.39550979068197</v>
       </c>
       <c r="P36">
-        <f>1/M36</f>
+        <f t="shared" si="16"/>
         <v>3.8921845170007199E-2</v>
       </c>
       <c r="Q36" cm="1">
@@ -5750,23 +5861,27 @@
         <v>141756</v>
       </c>
       <c r="T36">
-        <f>R36/F36</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U36">
-        <f>S36/E36</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V36">
-        <f>C36*U36</f>
+        <f t="shared" si="19"/>
         <v>80</v>
       </c>
       <c r="W36">
-        <f>(M36-C36)/(1-C36)</f>
+        <f t="shared" si="20"/>
         <v>0.6874365485363616</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36">
+        <f t="shared" si="10"/>
+        <v>2.6756298906336403E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6144</v>
       </c>
@@ -5787,11 +5902,11 @@
         <v>133681</v>
       </c>
       <c r="G37">
-        <f>POWER(A37,2)/C37</f>
+        <f t="shared" si="11"/>
         <v>1572864</v>
       </c>
       <c r="H37">
-        <f>ROUND(G37,-3)</f>
+        <f t="shared" si="12"/>
         <v>1573000</v>
       </c>
       <c r="I37" cm="1">
@@ -5811,19 +5926,19 @@
         <v>59656</v>
       </c>
       <c r="M37">
-        <f>J37/F37</f>
+        <f t="shared" si="13"/>
         <v>10.424226329844929</v>
       </c>
       <c r="N37">
-        <f>K37/E37</f>
+        <f t="shared" si="14"/>
         <v>12.435669707153144</v>
       </c>
       <c r="O37">
-        <f>L37/D37</f>
+        <f t="shared" si="15"/>
         <v>6.7798613478804413</v>
       </c>
       <c r="P37">
-        <f>1/M37</f>
+        <f t="shared" si="16"/>
         <v>9.5930380668823798E-2</v>
       </c>
       <c r="Q37" cm="1">
@@ -5839,23 +5954,27 @@
         <v>91652</v>
       </c>
       <c r="T37">
-        <f>R37/F37</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U37">
-        <f>S37/E37</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V37">
-        <f>C37*U37</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="W37">
-        <f>(M37-C37)/(1-C37)</f>
+        <f t="shared" si="20"/>
         <v>0.59025102913717697</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37">
+        <f t="shared" si="10"/>
+        <v>5.66230059152944E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6144</v>
       </c>
@@ -5876,11 +5995,11 @@
         <v>120719</v>
       </c>
       <c r="G38">
-        <f>POWER(A38,2)/C38</f>
+        <f t="shared" si="11"/>
         <v>1179648</v>
       </c>
       <c r="H38">
-        <f>ROUND(G38,-3)</f>
+        <f t="shared" si="12"/>
         <v>1180000</v>
       </c>
       <c r="I38" cm="1">
@@ -5900,19 +6019,19 @@
         <v>59656</v>
       </c>
       <c r="M38">
-        <f>J38/F38</f>
+        <f t="shared" si="13"/>
         <v>11.54351013510715</v>
       </c>
       <c r="N38">
-        <f>K38/E38</f>
+        <f t="shared" si="14"/>
         <v>13.631301352660472</v>
       </c>
       <c r="O38">
-        <f>L38/D38</f>
+        <f t="shared" si="15"/>
         <v>7.7737816002084958</v>
       </c>
       <c r="P38">
-        <f>1/M38</f>
+        <f t="shared" si="16"/>
         <v>8.6628762681007318E-2</v>
       </c>
       <c r="Q38" cm="1">
@@ -5928,23 +6047,27 @@
         <v>46299</v>
       </c>
       <c r="T38">
-        <f>R38/F38</f>
+        <f t="shared" si="17"/>
         <v>0.55333460350069164</v>
       </c>
       <c r="U38">
-        <f>S38/E38</f>
+        <f t="shared" si="18"/>
         <v>0.55372968318323701</v>
       </c>
       <c r="V38">
-        <f>C38*U38</f>
+        <f t="shared" si="19"/>
         <v>17.719349861863584</v>
       </c>
       <c r="W38">
-        <f>(M38-C38)/(1-C38)</f>
+        <f t="shared" si="20"/>
         <v>0.6598867698352533</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38">
+        <f t="shared" si="10"/>
+        <v>5.7165174380394652E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3072</v>
       </c>
@@ -5965,11 +6088,11 @@
         <v>109411</v>
       </c>
       <c r="G39">
-        <f>POWER(A39,2)/C39</f>
+        <f t="shared" si="11"/>
         <v>1179648</v>
       </c>
       <c r="H39">
-        <f>ROUND(G39,-3)</f>
+        <f t="shared" si="12"/>
         <v>1180000</v>
       </c>
       <c r="I39" cm="1">
@@ -5989,19 +6112,19 @@
         <v>17844</v>
       </c>
       <c r="M39">
-        <f>J39/F39</f>
+        <f t="shared" si="13"/>
         <v>3.7317545767792999</v>
       </c>
       <c r="N39">
-        <f>K39/E39</f>
+        <f t="shared" si="14"/>
         <v>4.2332907731193163</v>
       </c>
       <c r="O39">
-        <f>L39/D39</f>
+        <f t="shared" si="15"/>
         <v>2.0931378299120236</v>
       </c>
       <c r="P39">
-        <f>1/M39</f>
+        <f t="shared" si="16"/>
         <v>0.26797046253321744</v>
       </c>
       <c r="Q39" cm="1">
@@ -6017,23 +6140,27 @@
         <v>46299</v>
       </c>
       <c r="T39">
-        <f>R39/F39</f>
+        <f t="shared" si="17"/>
         <v>0.6105236219392931</v>
       </c>
       <c r="U39">
-        <f>S39/E39</f>
+        <f t="shared" si="18"/>
         <v>0.60321286187039114</v>
       </c>
       <c r="V39">
-        <f>C39*U39</f>
+        <f t="shared" si="19"/>
         <v>4.8257028949631291</v>
       </c>
       <c r="W39">
-        <f>(M39-C39)/(1-C39)</f>
+        <f t="shared" si="20"/>
         <v>0.6097493461743857</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39">
+        <f t="shared" si="10"/>
+        <v>0.16339481432367706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3072</v>
       </c>
@@ -6053,11 +6180,11 @@
         <v>74482</v>
       </c>
       <c r="G40">
-        <f>POWER(A40,2)/C40</f>
+        <f t="shared" si="11"/>
         <v>1179648</v>
       </c>
       <c r="H40">
-        <f>ROUND(G40,-3)</f>
+        <f t="shared" si="12"/>
         <v>1180000</v>
       </c>
       <c r="I40" cm="1">
@@ -6077,19 +6204,19 @@
         <v>17844</v>
       </c>
       <c r="M40">
-        <f>J40/F40</f>
+        <f t="shared" si="13"/>
         <v>5.4817942590156008</v>
       </c>
       <c r="N40">
-        <f>K40/E40</f>
+        <f t="shared" si="14"/>
         <v>6.5656724862592952</v>
       </c>
       <c r="O40">
-        <f>L40/D40</f>
+        <f t="shared" si="15"/>
         <v>2.3596932028563873</v>
       </c>
       <c r="P40">
-        <f>1/M40</f>
+        <f t="shared" si="16"/>
         <v>0.18242202329198251</v>
       </c>
       <c r="Q40" cm="1">
@@ -6105,23 +6232,27 @@
         <v>46299</v>
       </c>
       <c r="T40">
-        <f>R40/F40</f>
+        <f t="shared" si="17"/>
         <v>0.89683413442173943</v>
       </c>
       <c r="U40">
-        <f>S40/E40</f>
+        <f t="shared" si="18"/>
         <v>0.93556013579049468</v>
       </c>
       <c r="V40">
-        <f>C40*U40</f>
+        <f t="shared" si="19"/>
         <v>7.4844810863239575</v>
       </c>
       <c r="W40">
-        <f>(M40-C40)/(1-C40)</f>
+        <f t="shared" si="20"/>
         <v>0.35974367728348561</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40">
+        <f t="shared" si="10"/>
+        <v>6.5625169476551434E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1536</v>
       </c>
@@ -6141,11 +6272,11 @@
         <v>66798</v>
       </c>
       <c r="G41">
-        <f>POWER(A41,2)/C41</f>
+        <f t="shared" si="11"/>
         <v>1179648</v>
       </c>
       <c r="H41">
-        <f>ROUND(G41,-3)</f>
+        <f t="shared" si="12"/>
         <v>1180000</v>
       </c>
       <c r="I41" cm="1">
@@ -6165,19 +6296,19 @@
         <v>5588</v>
       </c>
       <c r="M41">
-        <f>J41/F41</f>
+        <f t="shared" si="13"/>
         <v>1.5402257552621337</v>
       </c>
       <c r="N41">
-        <f>K41/E41</f>
+        <f t="shared" si="14"/>
         <v>1.6296032311712996</v>
       </c>
       <c r="O41">
-        <f>L41/D41</f>
+        <f t="shared" si="15"/>
         <v>1.497320471596999</v>
       </c>
       <c r="P41">
-        <f>1/M41</f>
+        <f t="shared" si="16"/>
         <v>0.64925547218226354</v>
       </c>
       <c r="Q41" cm="1">
@@ -6193,23 +6324,27 @@
         <v>46299</v>
       </c>
       <c r="T41">
-        <f>R41/F41</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U41">
-        <f>S41/E41</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V41">
-        <f>C41*U41</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="W41">
-        <f>(M41-C41)/(1-C41)</f>
+        <f t="shared" si="20"/>
         <v>0.45977424473786632</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41">
+        <f t="shared" si="10"/>
+        <v>0.29851094436452708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6144</v>
       </c>
@@ -6230,11 +6365,11 @@
         <v>106691</v>
       </c>
       <c r="G42">
-        <f>POWER(A42,2)/C42</f>
+        <f t="shared" si="11"/>
         <v>943718.40000000002</v>
       </c>
       <c r="H42">
-        <f>ROUND(G42,-3)</f>
+        <f t="shared" si="12"/>
         <v>944000</v>
       </c>
       <c r="I42" cm="1">
@@ -6254,19 +6389,19 @@
         <v>59656</v>
       </c>
       <c r="M42">
-        <f>J42/F42</f>
+        <f t="shared" si="13"/>
         <v>13.061279770552343</v>
       </c>
       <c r="N42">
-        <f>K42/E42</f>
+        <f t="shared" si="14"/>
         <v>15.64693446088795</v>
       </c>
       <c r="O42">
-        <f>L42/D42</f>
+        <f t="shared" si="15"/>
         <v>10.178467838252859</v>
       </c>
       <c r="P42">
-        <f>1/M42</f>
+        <f t="shared" si="16"/>
         <v>7.6562175955726536E-2</v>
       </c>
       <c r="Q42" cm="1">
@@ -6282,23 +6417,27 @@
         <v>72842</v>
       </c>
       <c r="T42">
-        <f>R42/F42</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U42">
-        <f>S42/E42</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V42">
-        <f>C42*U42</f>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="W42">
-        <f>(M42-C42)/(1-C42)</f>
+        <f t="shared" si="20"/>
         <v>0.69073641613968351</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42">
+        <f t="shared" si="10"/>
+        <v>5.2884283031514392E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6144</v>
       </c>
@@ -6319,11 +6458,11 @@
         <v>100243</v>
       </c>
       <c r="G43">
-        <f>POWER(A43,2)/C43</f>
+        <f t="shared" si="11"/>
         <v>786432</v>
       </c>
       <c r="H43">
-        <f>ROUND(G43,-3)</f>
+        <f t="shared" si="12"/>
         <v>786000</v>
       </c>
       <c r="I43" cm="1">
@@ -6343,19 +6482,19 @@
         <v>59656</v>
       </c>
       <c r="M43">
-        <f>J43/F43</f>
+        <f t="shared" si="13"/>
         <v>13.90142952625121</v>
       </c>
       <c r="N43">
-        <f>K43/E43</f>
+        <f t="shared" si="14"/>
         <v>16.217561433714195</v>
       </c>
       <c r="O43">
-        <f>L43/D43</f>
+        <f t="shared" si="15"/>
         <v>11.397783721818877</v>
       </c>
       <c r="P43">
-        <f>1/M43</f>
+        <f t="shared" si="16"/>
         <v>7.1935047982771699E-2</v>
       </c>
       <c r="Q43" cm="1">
@@ -6371,23 +6510,27 @@
         <v>70279</v>
       </c>
       <c r="T43">
-        <f>R43/F43</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U43">
-        <f>S43/E43</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V43">
-        <f>C43*U43</f>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="W43">
-        <f>(M43-C43)/(1-C43)</f>
+        <f t="shared" si="20"/>
         <v>0.72550149944146369</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43">
+        <f t="shared" si="10"/>
+        <v>5.218898517389451E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>6144</v>
       </c>
@@ -6408,11 +6551,11 @@
         <v>89504</v>
       </c>
       <c r="G44">
-        <f>POWER(A44,2)/C44</f>
+        <f t="shared" si="11"/>
         <v>674084.57142857148</v>
       </c>
       <c r="H44">
-        <f>ROUND(G44,-3)</f>
+        <f t="shared" si="12"/>
         <v>674000</v>
       </c>
       <c r="I44" cm="1">
@@ -6432,19 +6575,19 @@
         <v>59656</v>
       </c>
       <c r="M44">
-        <f>J44/F44</f>
+        <f t="shared" si="13"/>
         <v>15.569371201287094</v>
       </c>
       <c r="N44">
-        <f>K44/E44</f>
+        <f t="shared" si="14"/>
         <v>19.024119110013185</v>
       </c>
       <c r="O44">
-        <f>L44/D44</f>
+        <f t="shared" si="15"/>
         <v>11.736376155813495</v>
       </c>
       <c r="P44">
-        <f>1/M44</f>
+        <f t="shared" si="16"/>
         <v>6.4228669679179576E-2</v>
       </c>
       <c r="Q44" cm="1">
@@ -6460,23 +6603,27 @@
         <v>59911</v>
       </c>
       <c r="T44">
-        <f>R44/F44</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U44">
-        <f>S44/E44</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V44">
-        <f>C44*U44</f>
+        <f t="shared" si="19"/>
         <v>56</v>
       </c>
       <c r="W44">
-        <f>(M44-C44)/(1-C44)</f>
+        <f t="shared" si="20"/>
         <v>0.73510234179478007</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44">
+        <f t="shared" si="10"/>
+        <v>4.7214645491528297E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>6144</v>
       </c>
@@ -6497,11 +6644,11 @@
         <v>89018</v>
       </c>
       <c r="G45">
-        <f>POWER(A45,2)/C45</f>
+        <f t="shared" si="11"/>
         <v>589824</v>
       </c>
       <c r="H45">
-        <f>ROUND(G45,-3)</f>
+        <f t="shared" si="12"/>
         <v>590000</v>
       </c>
       <c r="I45" cm="1">
@@ -6521,19 +6668,19 @@
         <v>59656</v>
       </c>
       <c r="M45">
-        <f>J45/F45</f>
+        <f t="shared" si="13"/>
         <v>15.654373272821227</v>
       </c>
       <c r="N45">
-        <f>K45/E45</f>
+        <f t="shared" si="14"/>
         <v>19.166481687014429</v>
       </c>
       <c r="O45">
-        <f>L45/D45</f>
+        <f t="shared" si="15"/>
         <v>12.79073756432247</v>
       </c>
       <c r="P45">
-        <f>1/M45</f>
+        <f t="shared" si="16"/>
         <v>6.3879912825138621E-2</v>
       </c>
       <c r="Q45" cm="1">
@@ -6549,23 +6696,27 @@
         <v>12729</v>
       </c>
       <c r="T45">
-        <f>R45/F45</f>
+        <f t="shared" si="17"/>
         <v>0.34687366600013481</v>
       </c>
       <c r="U45">
-        <f>S45/E45</f>
+        <f t="shared" si="18"/>
         <v>0.21405509030370296</v>
       </c>
       <c r="V45">
-        <f>C45*U45</f>
+        <f t="shared" si="19"/>
         <v>13.699525779436989</v>
       </c>
       <c r="W45">
-        <f>(M45-C45)/(1-C45)</f>
+        <f t="shared" si="20"/>
         <v>0.76739090043140912</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45">
+        <f t="shared" si="10"/>
+        <v>4.9020863822363044E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3072</v>
       </c>
@@ -6586,11 +6737,11 @@
         <v>64140</v>
       </c>
       <c r="G46">
-        <f>POWER(A46,2)/C46</f>
+        <f t="shared" si="11"/>
         <v>589824</v>
       </c>
       <c r="H46">
-        <f>ROUND(G46,-3)</f>
+        <f t="shared" si="12"/>
         <v>590000</v>
       </c>
       <c r="I46" cm="1">
@@ -6610,19 +6761,19 @@
         <v>17844</v>
       </c>
       <c r="M46">
-        <f>J46/F46</f>
+        <f t="shared" si="13"/>
         <v>6.3656844402868726</v>
       </c>
       <c r="N46">
-        <f>K46/E46</f>
+        <f t="shared" si="14"/>
         <v>8.7596581565254894</v>
       </c>
       <c r="O46">
-        <f>L46/D46</f>
+        <f t="shared" si="15"/>
         <v>2.6042031523642732</v>
       </c>
       <c r="P46">
-        <f>1/M46</f>
+        <f t="shared" si="16"/>
         <v>0.15709229846067183</v>
       </c>
       <c r="Q46" cm="1">
@@ -6638,23 +6789,27 @@
         <v>12729</v>
       </c>
       <c r="T46">
-        <f>R46/F46</f>
+        <f t="shared" si="17"/>
         <v>0.48141565325849706</v>
       </c>
       <c r="U46">
-        <f>S46/E46</f>
+        <f t="shared" si="18"/>
         <v>0.34316447847302728</v>
       </c>
       <c r="V46">
-        <f>C46*U46</f>
+        <f t="shared" si="19"/>
         <v>5.4906316555684365</v>
       </c>
       <c r="W46">
-        <f>(M46-C46)/(1-C46)</f>
+        <f t="shared" si="20"/>
         <v>0.64228770398087509</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46">
+        <f t="shared" si="10"/>
+        <v>0.10089845169138328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3072</v>
       </c>
@@ -6674,11 +6829,11 @@
         <v>64868</v>
       </c>
       <c r="G47">
-        <f>POWER(A47,2)/C47</f>
+        <f t="shared" si="11"/>
         <v>589824</v>
       </c>
       <c r="H47">
-        <f>ROUND(G47,-3)</f>
+        <f t="shared" si="12"/>
         <v>590000</v>
       </c>
       <c r="I47" cm="1">
@@ -6698,19 +6853,19 @@
         <v>17844</v>
       </c>
       <c r="M47">
-        <f>J47/F47</f>
+        <f t="shared" si="13"/>
         <v>6.2942436948880802</v>
       </c>
       <c r="N47">
-        <f>K47/E47</f>
+        <f t="shared" si="14"/>
         <v>7.8409710659040996</v>
       </c>
       <c r="O47">
-        <f>L47/D47</f>
+        <f t="shared" si="15"/>
         <v>2.4169036976838685</v>
       </c>
       <c r="P47">
-        <f>1/M47</f>
+        <f t="shared" si="16"/>
         <v>0.15887532298950513</v>
       </c>
       <c r="Q47" cm="1">
@@ -6726,23 +6881,27 @@
         <v>12729</v>
       </c>
       <c r="T47">
-        <f>R47/F47</f>
+        <f t="shared" si="17"/>
         <v>0.47601282604674106</v>
       </c>
       <c r="U47">
-        <f>S47/E47</f>
+        <f t="shared" si="18"/>
         <v>0.30717440092666332</v>
       </c>
       <c r="V47">
-        <f>C47*U47</f>
+        <f t="shared" si="19"/>
         <v>4.9147904148266131</v>
       </c>
       <c r="W47">
-        <f>(M47-C47)/(1-C47)</f>
+        <f t="shared" si="20"/>
         <v>0.64705042034079463</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47">
+        <f t="shared" si="10"/>
+        <v>0.10280034452213881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1536</v>
       </c>
@@ -6762,11 +6921,11 @@
         <v>50545</v>
       </c>
       <c r="G48">
-        <f>POWER(A48,2)/C48</f>
+        <f t="shared" si="11"/>
         <v>589824</v>
       </c>
       <c r="H48">
-        <f>ROUND(G48,-3)</f>
+        <f t="shared" si="12"/>
         <v>590000</v>
       </c>
       <c r="I48" cm="1">
@@ -6786,19 +6945,19 @@
         <v>5588</v>
       </c>
       <c r="M48">
-        <f>J48/F48</f>
+        <f t="shared" si="13"/>
         <v>2.0354931249381738</v>
       </c>
       <c r="N48">
-        <f>K48/E48</f>
+        <f t="shared" si="14"/>
         <v>2.3782190701339636</v>
       </c>
       <c r="O48">
-        <f>L48/D48</f>
+        <f t="shared" si="15"/>
         <v>0.92485931810658717</v>
       </c>
       <c r="P48">
-        <f>1/M48</f>
+        <f t="shared" si="16"/>
         <v>0.49128144317872557</v>
       </c>
       <c r="Q48" cm="1">
@@ -6814,23 +6973,27 @@
         <v>12729</v>
       </c>
       <c r="T48">
-        <f>R48/F48</f>
+        <f t="shared" si="17"/>
         <v>0.61090117716885939</v>
       </c>
       <c r="U48">
-        <f>S48/E48</f>
+        <f t="shared" si="18"/>
         <v>0.40122931442080378</v>
       </c>
       <c r="V48">
-        <f>C48*U48</f>
+        <f t="shared" si="19"/>
         <v>1.6049172576832151</v>
       </c>
       <c r="W48">
-        <f>(M48-C48)/(1-C48)</f>
+        <f t="shared" si="20"/>
         <v>0.65483562502060877</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48">
+        <f t="shared" si="10"/>
+        <v>0.32170859090496745</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>768</v>
       </c>
@@ -6850,11 +7013,11 @@
         <v>30878</v>
       </c>
       <c r="G49">
-        <f>POWER(A49,2)/C49</f>
+        <f t="shared" si="11"/>
         <v>589824</v>
       </c>
       <c r="H49">
-        <f>ROUND(G49,-3)</f>
+        <f t="shared" si="12"/>
         <v>590000</v>
       </c>
       <c r="I49" cm="1">
@@ -6874,19 +7037,19 @@
         <v>2431</v>
       </c>
       <c r="M49">
-        <f>J49/F49</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N49">
-        <f>K49/E49</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O49">
-        <f>L49/D49</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="P49">
-        <f>1/M49</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q49" cm="1">
@@ -6902,23 +7065,27 @@
         <v>12729</v>
       </c>
       <c r="T49">
-        <f>R49/F49</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U49">
-        <f>S49/E49</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V49">
-        <f>C49*U49</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W49" t="e">
-        <f>(M49-C49)/(1-C49)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X49" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>6144</v>
       </c>
@@ -6939,11 +7106,11 @@
         <v>71892</v>
       </c>
       <c r="G50">
-        <f>POWER(A50,2)/C50</f>
+        <f t="shared" si="11"/>
         <v>524288</v>
       </c>
       <c r="H50">
-        <f>ROUND(G50,-3)</f>
+        <f t="shared" si="12"/>
         <v>524000</v>
       </c>
       <c r="I50" cm="1">
@@ -6963,19 +7130,19 @@
         <v>59656</v>
       </c>
       <c r="M50">
-        <f>J50/F50</f>
+        <f t="shared" si="13"/>
         <v>19.383533633784008</v>
       </c>
       <c r="N50">
-        <f>K50/E50</f>
+        <f t="shared" si="14"/>
         <v>26.234411324663366</v>
       </c>
       <c r="O50">
-        <f>L50/D50</f>
+        <f t="shared" si="15"/>
         <v>12.832006883200687</v>
       </c>
       <c r="P50">
-        <f>1/M50</f>
+        <f t="shared" si="16"/>
         <v>5.1590180557020672E-2</v>
       </c>
       <c r="Q50" cm="1">
@@ -6991,23 +7158,27 @@
         <v>43445</v>
       </c>
       <c r="T50">
-        <f>R50/F50</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U50">
-        <f>S50/E50</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V50">
-        <f>C50*U50</f>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="W50">
-        <f>(M50-C50)/(1-C50)</f>
+        <f t="shared" si="20"/>
         <v>0.74107699107346459</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50">
+        <f t="shared" si="10"/>
+        <v>3.8232295776133636E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6144</v>
       </c>
@@ -7028,11 +7199,11 @@
         <v>72568</v>
       </c>
       <c r="G51">
-        <f>POWER(A51,2)/C51</f>
+        <f t="shared" si="11"/>
         <v>471859.20000000001</v>
       </c>
       <c r="H51">
-        <f>ROUND(G51,-3)</f>
+        <f t="shared" si="12"/>
         <v>472000</v>
       </c>
       <c r="I51" cm="1">
@@ -7052,19 +7223,19 @@
         <v>59656</v>
       </c>
       <c r="M51">
-        <f>J51/F51</f>
+        <f t="shared" si="13"/>
         <v>19.202968250468526</v>
       </c>
       <c r="N51">
-        <f>K51/E51</f>
+        <f t="shared" si="14"/>
         <v>25.720533477760476</v>
       </c>
       <c r="O51">
-        <f>L51/D51</f>
+        <f t="shared" si="15"/>
         <v>13.239236573457612</v>
       </c>
       <c r="P51">
-        <f>1/M51</f>
+        <f t="shared" si="16"/>
         <v>5.2075282683217546E-2</v>
       </c>
       <c r="Q51" cm="1">
@@ -7080,23 +7251,27 @@
         <v>44313</v>
       </c>
       <c r="T51">
-        <f>R51/F51</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U51">
-        <f>S51/E51</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V51">
-        <f>C51*U51</f>
+        <f t="shared" si="19"/>
         <v>80</v>
       </c>
       <c r="W51">
-        <f>(M51-C51)/(1-C51)</f>
+        <f t="shared" si="20"/>
         <v>0.76958268037381605</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X51">
+        <f t="shared" si="10"/>
+        <v>4.0076235628574722E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3072</v>
       </c>
@@ -7117,11 +7292,11 @@
         <v>56940</v>
       </c>
       <c r="G52">
-        <f>POWER(A52,2)/C52</f>
+        <f t="shared" si="11"/>
         <v>393216</v>
       </c>
       <c r="H52">
-        <f>ROUND(G52,-3)</f>
+        <f t="shared" si="12"/>
         <v>393000</v>
       </c>
       <c r="I52" cm="1">
@@ -7141,19 +7316,19 @@
         <v>17844</v>
       </c>
       <c r="M52">
-        <f>J52/F52</f>
+        <f t="shared" si="13"/>
         <v>7.170618194590797</v>
       </c>
       <c r="N52">
-        <f>K52/E52</f>
+        <f t="shared" si="14"/>
         <v>9.8353916939096742</v>
       </c>
       <c r="O52">
-        <f>L52/D52</f>
+        <f t="shared" si="15"/>
         <v>3.6588066434283371</v>
       </c>
       <c r="P52">
-        <f>1/M52</f>
+        <f t="shared" si="16"/>
         <v>0.13945798993374889</v>
       </c>
       <c r="Q52" cm="1">
@@ -7169,23 +7344,27 @@
         <v>33036</v>
       </c>
       <c r="T52">
-        <f>R52/F52</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U52">
-        <f>S52/E52</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V52">
-        <f>C52*U52</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="W52">
-        <f>(M52-C52)/(1-C52)</f>
+        <f t="shared" si="20"/>
         <v>0.73171225240909576</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X52">
+        <f t="shared" si="10"/>
+        <v>0.10204311993086841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3072</v>
       </c>
@@ -7206,11 +7385,11 @@
         <v>49280</v>
       </c>
       <c r="G53">
-        <f>POWER(A53,2)/C53</f>
+        <f t="shared" si="11"/>
         <v>294912</v>
       </c>
       <c r="H53">
-        <f>ROUND(G53,-3)</f>
+        <f t="shared" si="12"/>
         <v>295000</v>
       </c>
       <c r="I53" cm="1">
@@ -7230,19 +7409,19 @@
         <v>17844</v>
       </c>
       <c r="M53">
-        <f>J53/F53</f>
+        <f t="shared" si="13"/>
         <v>8.2852069805194812</v>
       </c>
       <c r="N53">
-        <f>K53/E53</f>
+        <f t="shared" si="14"/>
         <v>11.978249649782496</v>
       </c>
       <c r="O53">
-        <f>L53/D53</f>
+        <f t="shared" si="15"/>
         <v>4.8032301480484518</v>
       </c>
       <c r="P53">
-        <f>1/M53</f>
+        <f t="shared" si="16"/>
         <v>0.12069704502871698</v>
       </c>
       <c r="Q53" cm="1">
@@ -7258,23 +7437,27 @@
         <v>6567</v>
       </c>
       <c r="T53">
-        <f>R53/F53</f>
+        <f t="shared" si="17"/>
         <v>0.40533685064935066</v>
       </c>
       <c r="U53">
-        <f>S53/E53</f>
+        <f t="shared" si="18"/>
         <v>0.24209245742092458</v>
       </c>
       <c r="V53">
-        <f>C53*U53</f>
+        <f t="shared" si="19"/>
         <v>7.7469586374695867</v>
       </c>
       <c r="W53">
-        <f>(M53-C53)/(1-C53)</f>
+        <f t="shared" si="20"/>
         <v>0.76499332320904889</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X53">
+        <f t="shared" si="10"/>
+        <v>9.2332433578030421E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1536</v>
       </c>
@@ -7295,11 +7478,11 @@
         <v>43518</v>
       </c>
       <c r="G54">
-        <f>POWER(A54,2)/C54</f>
+        <f t="shared" si="11"/>
         <v>294912</v>
       </c>
       <c r="H54">
-        <f>ROUND(G54,-3)</f>
+        <f t="shared" si="12"/>
         <v>295000</v>
       </c>
       <c r="I54" cm="1">
@@ -7319,19 +7502,19 @@
         <v>5588</v>
       </c>
       <c r="M54">
-        <f>J54/F54</f>
+        <f t="shared" si="13"/>
         <v>2.36417114757112</v>
       </c>
       <c r="N54">
-        <f>K54/E54</f>
+        <f t="shared" si="14"/>
         <v>3.211278995530964</v>
       </c>
       <c r="O54">
-        <f>L54/D54</f>
+        <f t="shared" si="15"/>
         <v>0.93117813697717045</v>
       </c>
       <c r="P54">
-        <f>1/M54</f>
+        <f t="shared" si="16"/>
         <v>0.4229812215699234</v>
       </c>
       <c r="Q54" cm="1">
@@ -7347,23 +7530,27 @@
         <v>6567</v>
       </c>
       <c r="T54">
-        <f>R54/F54</f>
+        <f t="shared" si="17"/>
         <v>0.45900546900133277</v>
       </c>
       <c r="U54">
-        <f>S54/E54</f>
+        <f t="shared" si="18"/>
         <v>0.27950627793147476</v>
       </c>
       <c r="V54">
-        <f>C54*U54</f>
+        <f t="shared" si="19"/>
         <v>2.236050223451798</v>
       </c>
       <c r="W54">
-        <f>(M54-C54)/(1-C54)</f>
+        <f t="shared" si="20"/>
         <v>0.80511840748983998</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X54">
+        <f t="shared" si="10"/>
+        <v>0.34054996750848388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1536</v>
       </c>
@@ -7383,11 +7570,11 @@
         <v>35847</v>
       </c>
       <c r="G55">
-        <f>POWER(A55,2)/C55</f>
+        <f t="shared" si="11"/>
         <v>294912</v>
       </c>
       <c r="H55">
-        <f>ROUND(G55,-3)</f>
+        <f t="shared" si="12"/>
         <v>295000</v>
       </c>
       <c r="I55" cm="1">
@@ -7407,19 +7594,19 @@
         <v>5588</v>
       </c>
       <c r="M55">
-        <f>J55/F55</f>
+        <f t="shared" si="13"/>
         <v>2.8700867576087261</v>
       </c>
       <c r="N55">
-        <f>K55/E55</f>
+        <f t="shared" si="14"/>
         <v>3.9212618886752248</v>
       </c>
       <c r="O55">
-        <f>L55/D55</f>
+        <f t="shared" si="15"/>
         <v>1.1138130356786924</v>
       </c>
       <c r="P55">
-        <f>1/M55</f>
+        <f t="shared" si="16"/>
         <v>0.34842152326892423</v>
       </c>
       <c r="Q55" cm="1">
@@ -7435,23 +7622,27 @@
         <v>6567</v>
       </c>
       <c r="T55">
-        <f>R55/F55</f>
+        <f t="shared" si="17"/>
         <v>0.55722933578821099</v>
       </c>
       <c r="U55">
-        <f>S55/E55</f>
+        <f t="shared" si="18"/>
         <v>0.34130242710877812</v>
       </c>
       <c r="V55">
-        <f>C55*U55</f>
+        <f t="shared" si="19"/>
         <v>2.7304194168702249</v>
       </c>
       <c r="W55">
-        <f>(M55-C55)/(1-C55)</f>
+        <f t="shared" si="20"/>
         <v>0.73284474891303908</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X55">
+        <f t="shared" si="10"/>
+        <v>0.2553388837359134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>768</v>
       </c>
@@ -7471,11 +7662,11 @@
         <v>19975</v>
       </c>
       <c r="G56">
-        <f>POWER(A56,2)/C56</f>
+        <f t="shared" si="11"/>
         <v>294912</v>
       </c>
       <c r="H56">
-        <f>ROUND(G56,-3)</f>
+        <f t="shared" si="12"/>
         <v>295000</v>
       </c>
       <c r="I56" cm="1">
@@ -7495,19 +7686,19 @@
         <v>2431</v>
       </c>
       <c r="M56">
-        <f>J56/F56</f>
+        <f t="shared" si="13"/>
         <v>1.5458322903629538</v>
       </c>
       <c r="N56">
-        <f>K56/E56</f>
+        <f t="shared" si="14"/>
         <v>1.9383280036546369</v>
       </c>
       <c r="O56">
-        <f>L56/D56</f>
+        <f t="shared" si="15"/>
         <v>1.1239019879796579</v>
       </c>
       <c r="P56">
-        <f>1/M56</f>
+        <f t="shared" si="16"/>
         <v>0.64690070600427485</v>
       </c>
       <c r="Q56" cm="1">
@@ -7523,23 +7714,27 @@
         <v>6567</v>
       </c>
       <c r="T56">
-        <f>R56/F56</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U56">
-        <f>S56/E56</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V56">
-        <f>C56*U56</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="W56">
-        <f>(M56-C56)/(1-C56)</f>
+        <f t="shared" si="20"/>
         <v>0.45416770963704622</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X56">
+        <f t="shared" si="10"/>
+        <v>0.2938014120085497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3072</v>
       </c>
@@ -7560,11 +7755,11 @@
         <v>47370</v>
       </c>
       <c r="G57">
-        <f>POWER(A57,2)/C57</f>
+        <f t="shared" si="11"/>
         <v>235929.60000000001</v>
       </c>
       <c r="H57">
-        <f>ROUND(G57,-3)</f>
+        <f t="shared" si="12"/>
         <v>236000</v>
       </c>
       <c r="I57" cm="1">
@@ -7584,19 +7779,19 @@
         <v>17844</v>
       </c>
       <c r="M57">
-        <f>J57/F57</f>
+        <f t="shared" si="13"/>
         <v>8.6192738019843791</v>
       </c>
       <c r="N57">
-        <f>K57/E57</f>
+        <f t="shared" si="14"/>
         <v>12.508546350477364</v>
       </c>
       <c r="O57">
-        <f>L57/D57</f>
+        <f t="shared" si="15"/>
         <v>5.2129710780017531</v>
       </c>
       <c r="P57">
-        <f>1/M57</f>
+        <f t="shared" si="16"/>
         <v>0.11601905485004714</v>
       </c>
       <c r="Q57" cm="1">
@@ -7612,23 +7807,27 @@
         <v>25976</v>
       </c>
       <c r="T57">
-        <f>R57/F57</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U57">
-        <f>S57/E57</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V57">
-        <f>C57*U57</f>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="W57">
-        <f>(M57-C57)/(1-C57)</f>
+        <f t="shared" si="20"/>
         <v>0.80463400507732363</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X57">
+        <f t="shared" si="10"/>
+        <v>9.3352876769279114E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3072</v>
       </c>
@@ -7649,11 +7848,11 @@
         <v>43711</v>
       </c>
       <c r="G58">
-        <f>POWER(A58,2)/C58</f>
+        <f t="shared" si="11"/>
         <v>196608</v>
       </c>
       <c r="H58">
-        <f>ROUND(G58,-3)</f>
+        <f t="shared" si="12"/>
         <v>197000</v>
       </c>
       <c r="I58" cm="1">
@@ -7673,19 +7872,19 @@
         <v>17844</v>
       </c>
       <c r="M58">
-        <f>J58/F58</f>
+        <f t="shared" si="13"/>
         <v>9.3407837844020953</v>
       </c>
       <c r="N58">
-        <f>K58/E58</f>
+        <f t="shared" si="14"/>
         <v>14.216048302415121</v>
       </c>
       <c r="O58">
-        <f>L58/D58</f>
+        <f t="shared" si="15"/>
         <v>5.7542728152208964</v>
       </c>
       <c r="P58">
-        <f>1/M58</f>
+        <f t="shared" si="16"/>
         <v>0.10705739722504562</v>
       </c>
       <c r="Q58" cm="1">
@@ -7701,23 +7900,27 @@
         <v>22856</v>
       </c>
       <c r="T58">
-        <f>R58/F58</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U58">
-        <f>S58/E58</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V58">
-        <f>C58*U58</f>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="W58">
-        <f>(M58-C58)/(1-C58)</f>
+        <f t="shared" si="20"/>
         <v>0.82253651522548743</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X58">
+        <f t="shared" si="10"/>
+        <v>8.8058618442599795E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3072</v>
       </c>
@@ -7738,11 +7941,11 @@
         <v>40269</v>
       </c>
       <c r="G59">
-        <f>POWER(A59,2)/C59</f>
+        <f t="shared" si="11"/>
         <v>168521.14285714287</v>
       </c>
       <c r="H59">
-        <f>ROUND(G59,-3)</f>
+        <f t="shared" si="12"/>
         <v>169000</v>
       </c>
       <c r="I59" cm="1">
@@ -7762,19 +7965,19 @@
         <v>17844</v>
       </c>
       <c r="M59">
-        <f>J59/F59</f>
+        <f t="shared" si="13"/>
         <v>10.139188954282451</v>
       </c>
       <c r="N59">
-        <f>K59/E59</f>
+        <f t="shared" si="14"/>
         <v>16.755466171617162</v>
       </c>
       <c r="O59">
-        <f>L59/D59</f>
+        <f t="shared" si="15"/>
         <v>6.0080808080808081</v>
       </c>
       <c r="P59">
-        <f>1/M59</f>
+        <f t="shared" si="16"/>
         <v>9.8627218065369393E-2</v>
       </c>
       <c r="Q59" cm="1">
@@ -7790,23 +7993,27 @@
         <v>19392</v>
       </c>
       <c r="T59">
-        <f>R59/F59</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U59">
-        <f>S59/E59</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V59">
-        <f>C59*U59</f>
+        <f t="shared" si="19"/>
         <v>56</v>
       </c>
       <c r="W59">
-        <f>(M59-C59)/(1-C59)</f>
+        <f t="shared" si="20"/>
         <v>0.83383292810395537</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X59">
+        <f t="shared" si="10"/>
+        <v>8.2238622030194303E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3072</v>
       </c>
@@ -7827,11 +8034,11 @@
         <v>39264</v>
       </c>
       <c r="G60">
-        <f>POWER(A60,2)/C60</f>
+        <f t="shared" si="11"/>
         <v>147456</v>
       </c>
       <c r="H60">
-        <f>ROUND(G60,-3)</f>
+        <f t="shared" si="12"/>
         <v>147000</v>
       </c>
       <c r="I60" cm="1">
@@ -7851,19 +8058,19 @@
         <v>17844</v>
       </c>
       <c r="M60">
-        <f>J60/F60</f>
+        <f t="shared" si="13"/>
         <v>10.398711287693562</v>
       </c>
       <c r="N60">
-        <f>K60/E60</f>
+        <f t="shared" si="14"/>
         <v>18.102512674800824</v>
       </c>
       <c r="O60">
-        <f>L60/D60</f>
+        <f t="shared" si="15"/>
         <v>6.0263424518743669</v>
       </c>
       <c r="P60">
-        <f>1/M60</f>
+        <f t="shared" si="16"/>
         <v>9.6165762500153074E-2</v>
       </c>
       <c r="Q60" cm="1">
@@ -7879,23 +8086,27 @@
         <v>3293</v>
       </c>
       <c r="T60">
-        <f>R60/F60</f>
+        <f t="shared" si="17"/>
         <v>0.37487265688671556</v>
       </c>
       <c r="U60">
-        <f>S60/E60</f>
+        <f t="shared" si="18"/>
         <v>0.18346425984734527</v>
       </c>
       <c r="V60">
-        <f>C60*U60</f>
+        <f t="shared" si="19"/>
         <v>11.741712630230097</v>
       </c>
       <c r="W60">
-        <f>(M60-C60)/(1-C60)</f>
+        <f t="shared" si="20"/>
         <v>0.8508141065445467</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X60">
+        <f t="shared" si="10"/>
+        <v>8.1819187301742799E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1536</v>
       </c>
@@ -7916,11 +8127,11 @@
         <v>34293</v>
       </c>
       <c r="G61">
-        <f>POWER(A61,2)/C61</f>
+        <f t="shared" si="11"/>
         <v>147456</v>
       </c>
       <c r="H61">
-        <f>ROUND(G61,-3)</f>
+        <f t="shared" si="12"/>
         <v>147000</v>
       </c>
       <c r="I61" cm="1">
@@ -7940,19 +8151,19 @@
         <v>5588</v>
       </c>
       <c r="M61">
-        <f>J61/F61</f>
+        <f t="shared" si="13"/>
         <v>3.000145802350334</v>
       </c>
       <c r="N61">
-        <f>K61/E61</f>
+        <f t="shared" si="14"/>
         <v>5.2213840830449829</v>
       </c>
       <c r="O61">
-        <f>L61/D61</f>
+        <f t="shared" si="15"/>
         <v>1.2058696590418645</v>
       </c>
       <c r="P61">
-        <f>1/M61</f>
+        <f t="shared" si="16"/>
         <v>0.33331713385949224</v>
       </c>
       <c r="Q61" cm="1">
@@ -7968,23 +8179,27 @@
         <v>3293</v>
       </c>
       <c r="T61">
-        <f>R61/F61</f>
+        <f t="shared" si="17"/>
         <v>0.42921295891289768</v>
       </c>
       <c r="U61">
-        <f>S61/E61</f>
+        <f t="shared" si="18"/>
         <v>0.22788927335640138</v>
       </c>
       <c r="V61">
-        <f>C61*U61</f>
+        <f t="shared" si="19"/>
         <v>3.6462283737024221</v>
       </c>
       <c r="W61">
-        <f>(M61-C61)/(1-C61)</f>
+        <f t="shared" si="20"/>
         <v>0.86665694650997771</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X61">
+        <f t="shared" si="10"/>
+        <v>0.28887160945012508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1536</v>
       </c>
@@ -8004,11 +8219,11 @@
         <v>37186</v>
       </c>
       <c r="G62">
-        <f>POWER(A62,2)/C62</f>
+        <f t="shared" si="11"/>
         <v>147456</v>
       </c>
       <c r="H62">
-        <f>ROUND(G62,-3)</f>
+        <f t="shared" si="12"/>
         <v>147000</v>
       </c>
       <c r="I62" cm="1">
@@ -8028,19 +8243,19 @@
         <v>5588</v>
       </c>
       <c r="M62">
-        <f>J62/F62</f>
+        <f t="shared" si="13"/>
         <v>2.7667401710321089</v>
       </c>
       <c r="N62">
-        <f>K62/E62</f>
+        <f t="shared" si="14"/>
         <v>4.2902877288752412</v>
       </c>
       <c r="O62">
-        <f>L62/D62</f>
+        <f t="shared" si="15"/>
         <v>0.68030192354516683</v>
       </c>
       <c r="P62">
-        <f>1/M62</f>
+        <f t="shared" si="16"/>
         <v>0.36143618055285565</v>
       </c>
       <c r="Q62" cm="1">
@@ -8056,23 +8271,27 @@
         <v>3293</v>
       </c>
       <c r="T62">
-        <f>R62/F62</f>
+        <f t="shared" si="17"/>
         <v>0.39582100790620128</v>
       </c>
       <c r="U62">
-        <f>S62/E62</f>
+        <f t="shared" si="18"/>
         <v>0.18725122256340271</v>
       </c>
       <c r="V62">
-        <f>C62*U62</f>
+        <f t="shared" si="19"/>
         <v>2.9960195610144433</v>
       </c>
       <c r="W62">
-        <f>(M62-C62)/(1-C62)</f>
+        <f t="shared" si="20"/>
         <v>0.88221732193119284</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X62">
+        <f t="shared" si="10"/>
+        <v>0.31886525925637937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>768</v>
       </c>
@@ -8092,11 +8311,11 @@
         <v>21972</v>
       </c>
       <c r="G63">
-        <f>POWER(A63,2)/C63</f>
+        <f t="shared" si="11"/>
         <v>147456</v>
       </c>
       <c r="H63">
-        <f>ROUND(G63,-3)</f>
+        <f t="shared" si="12"/>
         <v>147000</v>
       </c>
       <c r="I63" cm="1">
@@ -8116,19 +8335,19 @@
         <v>2431</v>
       </c>
       <c r="M63">
-        <f>J63/F63</f>
+        <f t="shared" si="13"/>
         <v>1.40533406153286</v>
       </c>
       <c r="N63">
-        <f>K63/E63</f>
+        <f t="shared" si="14"/>
         <v>2.7450938106534397</v>
       </c>
       <c r="O63">
-        <f>L63/D63</f>
+        <f t="shared" si="15"/>
         <v>0.40672578216496569</v>
       </c>
       <c r="P63">
-        <f>1/M63</f>
+        <f t="shared" si="16"/>
         <v>0.71157458384610406</v>
       </c>
       <c r="Q63" cm="1">
@@ -8144,23 +8363,27 @@
         <v>3293</v>
       </c>
       <c r="T63">
-        <f>R63/F63</f>
+        <f t="shared" si="17"/>
         <v>0.66989805206626618</v>
       </c>
       <c r="U63">
-        <f>S63/E63</f>
+        <f t="shared" si="18"/>
         <v>0.71015742937243909</v>
       </c>
       <c r="V63">
-        <f>C63*U63</f>
+        <f t="shared" si="19"/>
         <v>2.8406297174897563</v>
       </c>
       <c r="W63">
-        <f>(M63-C63)/(1-C63)</f>
+        <f t="shared" si="20"/>
         <v>0.86488864615571337</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X63">
+        <f t="shared" si="10"/>
+        <v>0.61543277846147204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>384</v>
       </c>
@@ -8180,11 +8403,11 @@
         <v>14719</v>
       </c>
       <c r="G64">
-        <f>POWER(A64,2)/C64</f>
+        <f t="shared" si="11"/>
         <v>147456</v>
       </c>
       <c r="H64">
-        <f>ROUND(G64,-3)</f>
+        <f t="shared" si="12"/>
         <v>147000</v>
       </c>
       <c r="I64" cm="1">
@@ -8204,19 +8427,19 @@
         <v>1446</v>
       </c>
       <c r="M64">
-        <f>J64/F64</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N64">
-        <f>K64/E64</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O64">
-        <f>L64/D64</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="P64">
-        <f>1/M64</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q64" cm="1">
@@ -8232,23 +8455,27 @@
         <v>3293</v>
       </c>
       <c r="T64">
-        <f>R64/F64</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U64">
-        <f>S64/E64</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V64">
-        <f>C64*U64</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W64" t="e">
-        <f>(M64-C64)/(1-C64)</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X64" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3072</v>
       </c>
@@ -8269,11 +8496,11 @@
         <v>40813</v>
       </c>
       <c r="G65">
-        <f>POWER(A65,2)/C65</f>
+        <f t="shared" si="11"/>
         <v>131072</v>
       </c>
       <c r="H65">
-        <f>ROUND(G65,-3)</f>
+        <f t="shared" si="12"/>
         <v>131000</v>
       </c>
       <c r="I65" cm="1">
@@ -8293,19 +8520,19 @@
         <v>17844</v>
       </c>
       <c r="M65">
-        <f>J65/F65</f>
+        <f t="shared" si="13"/>
         <v>10.004042829490604</v>
       </c>
       <c r="N65">
-        <f>K65/E65</f>
+        <f t="shared" si="14"/>
         <v>17.158956485002111</v>
       </c>
       <c r="O65">
-        <f>L65/D65</f>
+        <f t="shared" si="15"/>
         <v>5.5485074626865671</v>
       </c>
       <c r="P65">
-        <f>1/M65</f>
+        <f t="shared" si="16"/>
         <v>9.9959588042959124E-2</v>
       </c>
       <c r="Q65" cm="1">
@@ -8321,23 +8548,27 @@
         <v>18936</v>
       </c>
       <c r="T65">
-        <f>R65/F65</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U65">
-        <f>S65/E65</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V65">
-        <f>C65*U65</f>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="W65">
-        <f>(M65-C65)/(1-C65)</f>
+        <f t="shared" si="20"/>
         <v>0.87318249535928727</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X65">
+        <f t="shared" si="10"/>
+        <v>8.7282962522437404E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3072</v>
       </c>
@@ -8358,11 +8589,11 @@
         <v>37859</v>
       </c>
       <c r="G66">
-        <f>POWER(A66,2)/C66</f>
+        <f t="shared" ref="G66:G85" si="21">POWER(A66,2)/C66</f>
         <v>117964.8</v>
       </c>
       <c r="H66">
-        <f>ROUND(G66,-3)</f>
+        <f t="shared" ref="H66:H85" si="22">ROUND(G66,-3)</f>
         <v>118000</v>
       </c>
       <c r="I66" cm="1">
@@ -8382,19 +8613,19 @@
         <v>17844</v>
       </c>
       <c r="M66">
-        <f>J66/F66</f>
+        <f t="shared" ref="M66:M85" si="23">J66/F66</f>
         <v>10.784621886473493</v>
       </c>
       <c r="N66">
-        <f>K66/E66</f>
+        <f t="shared" ref="N66:N85" si="24">K66/E66</f>
         <v>19.840141662087074</v>
       </c>
       <c r="O66">
-        <f>L66/D66</f>
+        <f t="shared" ref="O66:O85" si="25">L66/D66</f>
         <v>6.0161834120026976</v>
       </c>
       <c r="P66">
-        <f>1/M66</f>
+        <f t="shared" ref="P66:P85" si="26">1/M66</f>
         <v>9.2724623127885472E-2</v>
       </c>
       <c r="Q66" cm="1">
@@ -8410,23 +8641,27 @@
         <v>16377</v>
       </c>
       <c r="T66">
-        <f>R66/F66</f>
+        <f t="shared" ref="T66:T85" si="27">R66/F66</f>
         <v>1</v>
       </c>
       <c r="U66">
-        <f>S66/E66</f>
+        <f t="shared" ref="U66:U85" si="28">S66/E66</f>
         <v>1</v>
       </c>
       <c r="V66">
-        <f>C66*U66</f>
+        <f t="shared" ref="V66:V85" si="29">C66*U66</f>
         <v>80</v>
       </c>
       <c r="W66">
-        <f>(M66-C66)/(1-C66)</f>
+        <f t="shared" ref="W66:W85" si="30">(M66-C66)/(1-C66)</f>
         <v>0.87614402675350012</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X66">
+        <f t="shared" si="10"/>
+        <v>8.1240124686466297E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1536</v>
       </c>
@@ -8447,11 +8682,11 @@
         <v>29947</v>
       </c>
       <c r="G67">
-        <f>POWER(A67,2)/C67</f>
+        <f t="shared" si="21"/>
         <v>98304</v>
       </c>
       <c r="H67">
-        <f>ROUND(G67,-3)</f>
+        <f t="shared" si="22"/>
         <v>98000</v>
       </c>
       <c r="I67" cm="1">
@@ -8471,19 +8706,19 @@
         <v>5588</v>
       </c>
       <c r="M67">
-        <f>J67/F67</f>
+        <f t="shared" si="23"/>
         <v>3.4355361138010485</v>
       </c>
       <c r="N67">
-        <f>K67/E67</f>
+        <f t="shared" si="24"/>
         <v>7.2186184462303862</v>
       </c>
       <c r="O67">
-        <f>L67/D67</f>
+        <f t="shared" si="25"/>
         <v>1.600229095074456</v>
       </c>
       <c r="P67">
-        <f>1/M67</f>
+        <f t="shared" si="26"/>
         <v>0.29107538587146692</v>
       </c>
       <c r="Q67" cm="1">
@@ -8499,23 +8734,27 @@
         <v>10452</v>
       </c>
       <c r="T67">
-        <f>R67/F67</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U67">
-        <f>S67/E67</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V67">
-        <f>C67*U67</f>
+        <f t="shared" si="29"/>
         <v>24</v>
       </c>
       <c r="W67">
-        <f>(M67-C67)/(1-C67)</f>
+        <f t="shared" si="30"/>
         <v>0.89410712548691085</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X67">
+        <f t="shared" ref="X67:X85" si="31">(1/M67-1/C67)/(1-1/C67)</f>
+        <v>0.26025257656153072</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1536</v>
       </c>
@@ -8536,11 +8775,11 @@
         <v>26841</v>
       </c>
       <c r="G68">
-        <f>POWER(A68,2)/C68</f>
+        <f t="shared" si="21"/>
         <v>73728</v>
       </c>
       <c r="H68">
-        <f>ROUND(G68,-3)</f>
+        <f t="shared" si="22"/>
         <v>74000</v>
       </c>
       <c r="I68" cm="1">
@@ -8560,19 +8799,19 @@
         <v>5588</v>
       </c>
       <c r="M68">
-        <f>J68/F68</f>
+        <f t="shared" si="23"/>
         <v>3.8330911664990128</v>
       </c>
       <c r="N68">
-        <f>K68/E68</f>
+        <f t="shared" si="24"/>
         <v>8.7935897435897434</v>
       </c>
       <c r="O68">
-        <f>L68/D68</f>
+        <f t="shared" si="25"/>
         <v>2.2387820512820511</v>
       </c>
       <c r="P68">
-        <f>1/M68</f>
+        <f t="shared" si="26"/>
         <v>0.26088604642121221</v>
       </c>
       <c r="Q68" cm="1">
@@ -8588,23 +8827,27 @@
         <v>1852</v>
       </c>
       <c r="T68">
-        <f>R68/F68</f>
+        <f t="shared" si="27"/>
         <v>0.47643530419880037</v>
       </c>
       <c r="U68">
-        <f>S68/E68</f>
+        <f t="shared" si="28"/>
         <v>0.21585081585081586</v>
       </c>
       <c r="V68">
-        <f>C68*U68</f>
+        <f t="shared" si="29"/>
         <v>6.9072261072261076</v>
       </c>
       <c r="W68">
-        <f>(M68-C68)/(1-C68)</f>
+        <f t="shared" si="30"/>
         <v>0.90860996237099956</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X68">
+        <f t="shared" si="31"/>
+        <v>0.23704366082189648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>768</v>
       </c>
@@ -8625,11 +8868,11 @@
         <v>20517</v>
       </c>
       <c r="G69">
-        <f>POWER(A69,2)/C69</f>
+        <f t="shared" si="21"/>
         <v>73728</v>
       </c>
       <c r="H69">
-        <f>ROUND(G69,-3)</f>
+        <f t="shared" si="22"/>
         <v>74000</v>
       </c>
       <c r="I69" cm="1">
@@ -8649,19 +8892,19 @@
         <v>2431</v>
       </c>
       <c r="M69">
-        <f>J69/F69</f>
+        <f t="shared" si="23"/>
         <v>1.5049958570941171</v>
       </c>
       <c r="N69">
-        <f>K69/E69</f>
+        <f t="shared" si="24"/>
         <v>2.487590384991206</v>
       </c>
       <c r="O69">
-        <f>L69/D69</f>
+        <f t="shared" si="25"/>
         <v>0.56208092485549133</v>
       </c>
       <c r="P69">
-        <f>1/M69</f>
+        <f t="shared" si="26"/>
         <v>0.66445365632489151</v>
       </c>
       <c r="Q69" cm="1">
@@ -8677,23 +8920,27 @@
         <v>1852</v>
       </c>
       <c r="T69">
-        <f>R69/F69</f>
+        <f t="shared" si="27"/>
         <v>0.6232880050689672</v>
       </c>
       <c r="U69">
-        <f>S69/E69</f>
+        <f t="shared" si="28"/>
         <v>0.36193081883916356</v>
       </c>
       <c r="V69">
-        <f>C69*U69</f>
+        <f t="shared" si="29"/>
         <v>2.8954465507133085</v>
       </c>
       <c r="W69">
-        <f>(M69-C69)/(1-C69)</f>
+        <f t="shared" si="30"/>
         <v>0.92785773470084032</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X69">
+        <f t="shared" si="31"/>
+        <v>0.61651846437130453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>768</v>
       </c>
@@ -8713,11 +8960,11 @@
         <v>17252</v>
       </c>
       <c r="G70">
-        <f>POWER(A70,2)/C70</f>
+        <f t="shared" si="21"/>
         <v>73728</v>
       </c>
       <c r="H70">
-        <f>ROUND(G70,-3)</f>
+        <f t="shared" si="22"/>
         <v>74000</v>
       </c>
       <c r="I70" cm="1">
@@ -8737,19 +8984,19 @@
         <v>2431</v>
       </c>
       <c r="M70">
-        <f>J70/F70</f>
+        <f t="shared" si="23"/>
         <v>1.7898214699744956</v>
       </c>
       <c r="N70">
-        <f>K70/E70</f>
+        <f t="shared" si="24"/>
         <v>4.0460902733630002</v>
       </c>
       <c r="O70">
-        <f>L70/D70</f>
+        <f t="shared" si="25"/>
         <v>0.56998827667057439</v>
       </c>
       <c r="P70">
-        <f>1/M70</f>
+        <f t="shared" si="26"/>
         <v>0.55871494267763455</v>
       </c>
       <c r="Q70" cm="1">
@@ -8765,23 +9012,27 @@
         <v>1852</v>
       </c>
       <c r="T70">
-        <f>R70/F70</f>
+        <f t="shared" si="27"/>
         <v>0.74124739160677022</v>
       </c>
       <c r="U70">
-        <f>S70/E70</f>
+        <f t="shared" si="28"/>
         <v>0.58868404322949774</v>
       </c>
       <c r="V70">
-        <f>C70*U70</f>
+        <f t="shared" si="29"/>
         <v>4.709472345835982</v>
       </c>
       <c r="W70">
-        <f>(M70-C70)/(1-C70)</f>
+        <f t="shared" si="30"/>
         <v>0.88716836143221489</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X70">
+        <f t="shared" si="31"/>
+        <v>0.49567422020301094</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>384</v>
       </c>
@@ -8801,11 +9052,11 @@
         <v>12788</v>
       </c>
       <c r="G71">
-        <f>POWER(A71,2)/C71</f>
+        <f t="shared" si="21"/>
         <v>73728</v>
       </c>
       <c r="H71">
-        <f>ROUND(G71,-3)</f>
+        <f t="shared" si="22"/>
         <v>74000</v>
       </c>
       <c r="I71" cm="1">
@@ -8825,19 +9076,19 @@
         <v>1446</v>
       </c>
       <c r="M71">
-        <f>J71/F71</f>
+        <f t="shared" si="23"/>
         <v>1.1510009383797311</v>
       </c>
       <c r="N71">
-        <f>K71/E71</f>
+        <f t="shared" si="24"/>
         <v>1.7780777537796977</v>
       </c>
       <c r="O71">
-        <f>L71/D71</f>
+        <f t="shared" si="25"/>
         <v>0.9377431906614786</v>
       </c>
       <c r="P71">
-        <f>1/M71</f>
+        <f t="shared" si="26"/>
         <v>0.86880902235206192</v>
       </c>
       <c r="Q71" cm="1">
@@ -8853,23 +9104,27 @@
         <v>1852</v>
       </c>
       <c r="T71">
-        <f>R71/F71</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U71">
-        <f>S71/E71</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V71">
-        <f>C71*U71</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="W71">
-        <f>(M71-C71)/(1-C71)</f>
+        <f t="shared" si="30"/>
         <v>0.84899906162026895</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X71">
+        <f t="shared" si="31"/>
+        <v>0.73761804470412384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1536</v>
       </c>
@@ -8890,11 +9145,11 @@
         <v>25956</v>
       </c>
       <c r="G72">
-        <f>POWER(A72,2)/C72</f>
+        <f t="shared" si="21"/>
         <v>58982.400000000001</v>
       </c>
       <c r="H72">
-        <f>ROUND(G72,-3)</f>
+        <f t="shared" si="22"/>
         <v>59000</v>
       </c>
       <c r="I72" cm="1">
@@ -8914,19 +9169,19 @@
         <v>5588</v>
       </c>
       <c r="M72">
-        <f>J72/F72</f>
+        <f t="shared" si="23"/>
         <v>3.963784866697488</v>
       </c>
       <c r="N72">
-        <f>K72/E72</f>
+        <f t="shared" si="24"/>
         <v>10.201325040562466</v>
       </c>
       <c r="O72">
-        <f>L72/D72</f>
+        <f t="shared" si="25"/>
         <v>1.7418952618453865</v>
       </c>
       <c r="P72">
-        <f>1/M72</f>
+        <f t="shared" si="26"/>
         <v>0.25228412581159365</v>
       </c>
       <c r="Q72" cm="1">
@@ -8942,23 +9197,27 @@
         <v>7396</v>
       </c>
       <c r="T72">
-        <f>R72/F72</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U72">
-        <f>S72/E72</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V72">
-        <f>C72*U72</f>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="W72">
-        <f>(M72-C72)/(1-C72)</f>
+        <f t="shared" si="30"/>
         <v>0.924005516238526</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X72">
+        <f t="shared" si="31"/>
+        <v>0.23311192390932683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1536</v>
       </c>
@@ -8979,11 +9238,11 @@
         <v>28662</v>
       </c>
       <c r="G73">
-        <f>POWER(A73,2)/C73</f>
+        <f t="shared" si="21"/>
         <v>49152</v>
       </c>
       <c r="H73">
-        <f>ROUND(G73,-3)</f>
+        <f t="shared" si="22"/>
         <v>49000</v>
       </c>
       <c r="I73" cm="1">
@@ -9003,19 +9262,19 @@
         <v>5588</v>
       </c>
       <c r="M73">
-        <f>J73/F73</f>
+        <f t="shared" si="23"/>
         <v>3.589561091340451</v>
       </c>
       <c r="N73">
-        <f>K73/E73</f>
+        <f t="shared" si="24"/>
         <v>9.9445103466455773</v>
       </c>
       <c r="O73">
-        <f>L73/D73</f>
+        <f t="shared" si="25"/>
         <v>2.3819266837169653</v>
       </c>
       <c r="P73">
-        <f>1/M73</f>
+        <f t="shared" si="26"/>
         <v>0.27858559153998674</v>
       </c>
       <c r="Q73" cm="1">
@@ -9031,23 +9290,27 @@
         <v>7587</v>
       </c>
       <c r="T73">
-        <f>R73/F73</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U73">
-        <f>S73/E73</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V73">
-        <f>C73*U73</f>
+        <f t="shared" si="29"/>
         <v>48</v>
       </c>
       <c r="W73">
-        <f>(M73-C73)/(1-C73)</f>
+        <f t="shared" si="30"/>
         <v>0.94490295550339465</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X73">
+        <f t="shared" si="31"/>
+        <v>0.26323634880679497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1536</v>
       </c>
@@ -9068,11 +9331,11 @@
         <v>24196</v>
       </c>
       <c r="G74">
-        <f>POWER(A74,2)/C74</f>
+        <f t="shared" si="21"/>
         <v>42130.285714285717</v>
       </c>
       <c r="H74">
-        <f>ROUND(G74,-3)</f>
+        <f t="shared" si="22"/>
         <v>42000</v>
       </c>
       <c r="I74" cm="1">
@@ -9092,19 +9355,19 @@
         <v>5588</v>
       </c>
       <c r="M74">
-        <f>J74/F74</f>
+        <f t="shared" si="23"/>
         <v>4.2521077864109769</v>
       </c>
       <c r="N74">
-        <f>K74/E74</f>
+        <f t="shared" si="24"/>
         <v>12.844569288389513</v>
       </c>
       <c r="O74">
-        <f>L74/D74</f>
+        <f t="shared" si="25"/>
         <v>2.587037037037037</v>
       </c>
       <c r="P74">
-        <f>1/M74</f>
+        <f t="shared" si="26"/>
         <v>0.23517748143540299</v>
       </c>
       <c r="Q74" cm="1">
@@ -9120,23 +9383,27 @@
         <v>5874</v>
       </c>
       <c r="T74">
-        <f>R74/F74</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U74">
-        <f>S74/E74</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V74">
-        <f>C74*U74</f>
+        <f t="shared" si="29"/>
         <v>56</v>
       </c>
       <c r="W74">
-        <f>(M74-C74)/(1-C74)</f>
+        <f t="shared" si="30"/>
         <v>0.94087076751980048</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X74">
+        <f t="shared" si="31"/>
+        <v>0.22127161746150123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1536</v>
       </c>
@@ -9157,11 +9424,11 @@
         <v>25606</v>
       </c>
       <c r="G75">
-        <f>POWER(A75,2)/C75</f>
+        <f t="shared" si="21"/>
         <v>36864</v>
       </c>
       <c r="H75">
-        <f>ROUND(G75,-3)</f>
+        <f t="shared" si="22"/>
         <v>37000</v>
       </c>
       <c r="I75" cm="1">
@@ -9181,19 +9448,19 @@
         <v>5588</v>
       </c>
       <c r="M75">
-        <f>J75/F75</f>
+        <f t="shared" si="23"/>
         <v>4.0179645395610404</v>
       </c>
       <c r="N75">
-        <f>K75/E75</f>
+        <f t="shared" si="24"/>
         <v>13.126130828114126</v>
       </c>
       <c r="O75">
-        <f>L75/D75</f>
+        <f t="shared" si="25"/>
         <v>2.7718253968253967</v>
       </c>
       <c r="P75">
-        <f>1/M75</f>
+        <f t="shared" si="26"/>
         <v>0.24888223630496481</v>
       </c>
       <c r="Q75" cm="1">
@@ -9209,23 +9476,27 @@
         <v>1177</v>
       </c>
       <c r="T75">
-        <f>R75/F75</f>
+        <f t="shared" si="27"/>
         <v>0.54315394829336872</v>
       </c>
       <c r="U75">
-        <f>S75/E75</f>
+        <f t="shared" si="28"/>
         <v>0.20476687543493388</v>
       </c>
       <c r="V75">
-        <f>C75*U75</f>
+        <f t="shared" si="29"/>
         <v>13.105080027835768</v>
       </c>
       <c r="W75">
-        <f>(M75-C75)/(1-C75)</f>
+        <f t="shared" si="30"/>
         <v>0.95209580095934854</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X75">
+        <f t="shared" si="31"/>
+        <v>0.23695973211932933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>768</v>
       </c>
@@ -9246,11 +9517,11 @@
         <v>20582</v>
       </c>
       <c r="G76">
-        <f>POWER(A76,2)/C76</f>
+        <f t="shared" si="21"/>
         <v>36864</v>
       </c>
       <c r="H76">
-        <f>ROUND(G76,-3)</f>
+        <f t="shared" si="22"/>
         <v>37000</v>
       </c>
       <c r="I76" cm="1">
@@ -9270,19 +9541,19 @@
         <v>2431</v>
       </c>
       <c r="M76">
-        <f>J76/F76</f>
+        <f t="shared" si="23"/>
         <v>1.5002429307161598</v>
       </c>
       <c r="N76">
-        <f>K76/E76</f>
+        <f t="shared" si="24"/>
         <v>4.2600401606425704</v>
       </c>
       <c r="O76">
-        <f>L76/D76</f>
+        <f t="shared" si="25"/>
         <v>0.58691453404152583</v>
       </c>
       <c r="P76">
-        <f>1/M76</f>
+        <f t="shared" si="26"/>
         <v>0.6665587149426776</v>
       </c>
       <c r="Q76" cm="1">
@@ -9298,23 +9569,27 @@
         <v>1177</v>
       </c>
       <c r="T76">
-        <f>R76/F76</f>
+        <f t="shared" si="27"/>
         <v>0.675736080069964</v>
       </c>
       <c r="U76">
-        <f>S76/E76</f>
+        <f t="shared" si="28"/>
         <v>0.39390896921017404</v>
       </c>
       <c r="V76">
-        <f>C76*U76</f>
+        <f t="shared" si="29"/>
         <v>6.3025435073627847</v>
       </c>
       <c r="W76">
-        <f>(M76-C76)/(1-C76)</f>
+        <f t="shared" si="30"/>
         <v>0.96665047128558934</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X76">
+        <f t="shared" si="31"/>
+        <v>0.64432929593885613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>768</v>
       </c>
@@ -9334,11 +9609,11 @@
         <v>20536</v>
       </c>
       <c r="G77">
-        <f>POWER(A77,2)/C77</f>
+        <f t="shared" si="21"/>
         <v>36864</v>
       </c>
       <c r="H77">
-        <f>ROUND(G77,-3)</f>
+        <f t="shared" si="22"/>
         <v>37000</v>
       </c>
       <c r="I77" cm="1">
@@ -9358,19 +9633,19 @@
         <v>2431</v>
       </c>
       <c r="M77">
-        <f>J77/F77</f>
+        <f t="shared" si="23"/>
         <v>1.5036034281262174</v>
       </c>
       <c r="N77">
-        <f>K77/E77</f>
+        <f t="shared" si="24"/>
         <v>2.1119960179193629</v>
       </c>
       <c r="O77">
-        <f>L77/D77</f>
+        <f t="shared" si="25"/>
         <v>0.52767527675276749</v>
       </c>
       <c r="P77">
-        <f>1/M77</f>
+        <f t="shared" si="26"/>
         <v>0.66506898115162894</v>
       </c>
       <c r="Q77" cm="1">
@@ -9386,23 +9661,27 @@
         <v>1177</v>
       </c>
       <c r="T77">
-        <f>R77/F77</f>
+        <f t="shared" si="27"/>
         <v>0.67724970783015193</v>
       </c>
       <c r="U77">
-        <f>S77/E77</f>
+        <f t="shared" si="28"/>
         <v>0.1952878712460594</v>
       </c>
       <c r="V77">
-        <f>C77*U77</f>
+        <f t="shared" si="29"/>
         <v>3.1246059399369503</v>
       </c>
       <c r="W77">
-        <f>(M77-C77)/(1-C77)</f>
+        <f t="shared" si="30"/>
         <v>0.96642643812491891</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X77">
+        <f t="shared" si="31"/>
+        <v>0.64274024656173756</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>384</v>
       </c>
@@ -9422,11 +9701,11 @@
         <v>13908</v>
       </c>
       <c r="G78">
-        <f>POWER(A78,2)/C78</f>
+        <f t="shared" si="21"/>
         <v>36864</v>
       </c>
       <c r="H78">
-        <f>ROUND(G78,-3)</f>
+        <f t="shared" si="22"/>
         <v>37000</v>
       </c>
       <c r="I78" cm="1">
@@ -9446,19 +9725,19 @@
         <v>1446</v>
       </c>
       <c r="M78">
-        <f>J78/F78</f>
+        <f t="shared" si="23"/>
         <v>1.0583117630140926</v>
       </c>
       <c r="N78">
-        <f>K78/E78</f>
+        <f t="shared" si="24"/>
         <v>2.7977909940526762</v>
       </c>
       <c r="O78">
-        <f>L78/D78</f>
+        <f t="shared" si="25"/>
         <v>0.4091680814940577</v>
       </c>
       <c r="P78">
-        <f>1/M78</f>
+        <f t="shared" si="26"/>
         <v>0.94490114817582715</v>
       </c>
       <c r="Q78" cm="1">
@@ -9474,23 +9753,27 @@
         <v>1177</v>
       </c>
       <c r="T78">
-        <f>R78/F78</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U78">
-        <f>S78/E78</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V78">
-        <f>C78*U78</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="W78">
-        <f>(M78-C78)/(1-C78)</f>
+        <f t="shared" si="30"/>
         <v>0.9805627456619691</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X78">
+        <f t="shared" si="31"/>
+        <v>0.92653486423443621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1536</v>
       </c>
@@ -9511,11 +9794,11 @@
         <v>24378</v>
       </c>
       <c r="G79">
-        <f>POWER(A79,2)/C79</f>
+        <f t="shared" si="21"/>
         <v>32768</v>
       </c>
       <c r="H79">
-        <f>ROUND(G79,-3)</f>
+        <f t="shared" si="22"/>
         <v>33000</v>
       </c>
       <c r="I79" cm="1">
@@ -9535,19 +9818,19 @@
         <v>5588</v>
       </c>
       <c r="M79">
-        <f>J79/F79</f>
+        <f t="shared" si="23"/>
         <v>4.2203626220362622</v>
       </c>
       <c r="N79">
-        <f>K79/E79</f>
+        <f t="shared" si="24"/>
         <v>15.263807404410278</v>
       </c>
       <c r="O79">
-        <f>L79/D79</f>
+        <f t="shared" si="25"/>
         <v>2.9180156657963447</v>
       </c>
       <c r="P79">
-        <f>1/M79</f>
+        <f t="shared" si="26"/>
         <v>0.23694646397884997</v>
       </c>
       <c r="Q79" cm="1">
@@ -9563,23 +9846,27 @@
         <v>4943</v>
       </c>
       <c r="T79">
-        <f>R79/F79</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U79">
-        <f>S79/E79</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V79">
-        <f>C79*U79</f>
+        <f t="shared" si="29"/>
         <v>72</v>
       </c>
       <c r="W79">
-        <f>(M79-C79)/(1-C79)</f>
+        <f t="shared" si="30"/>
         <v>0.9546427799713203</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X79">
+        <f t="shared" si="31"/>
+        <v>0.22619923107714363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1536</v>
       </c>
@@ -9600,11 +9887,11 @@
         <v>24264</v>
       </c>
       <c r="G80">
-        <f>POWER(A80,2)/C80</f>
+        <f t="shared" si="21"/>
         <v>29491.200000000001</v>
       </c>
       <c r="H80">
-        <f>ROUND(G80,-3)</f>
+        <f t="shared" si="22"/>
         <v>29000</v>
       </c>
       <c r="I80" cm="1">
@@ -9624,19 +9911,19 @@
         <v>5588</v>
       </c>
       <c r="M80">
-        <f>J80/F80</f>
+        <f t="shared" si="23"/>
         <v>4.2401912298054727</v>
       </c>
       <c r="N80">
-        <f>K80/E80</f>
+        <f t="shared" si="24"/>
         <v>14.922666139240507</v>
       </c>
       <c r="O80">
-        <f>L80/D80</f>
+        <f t="shared" si="25"/>
         <v>2.881897885507994</v>
       </c>
       <c r="P80">
-        <f>1/M80</f>
+        <f t="shared" si="26"/>
         <v>0.23583841996811947</v>
       </c>
       <c r="Q80" cm="1">
@@ -9652,23 +9939,27 @@
         <v>5056</v>
       </c>
       <c r="T80">
-        <f>R80/F80</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U80">
-        <f>S80/E80</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V80">
-        <f>C80*U80</f>
+        <f t="shared" si="29"/>
         <v>80</v>
       </c>
       <c r="W80">
-        <f>(M80-C80)/(1-C80)</f>
+        <f t="shared" si="30"/>
         <v>0.95898492114170286</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X80">
+        <f t="shared" si="31"/>
+        <v>0.22616548857531082</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>768</v>
       </c>
@@ -9689,11 +9980,11 @@
         <v>18836</v>
       </c>
       <c r="G81">
-        <f>POWER(A81,2)/C81</f>
+        <f t="shared" si="21"/>
         <v>24576</v>
       </c>
       <c r="H81">
-        <f>ROUND(G81,-3)</f>
+        <f t="shared" si="22"/>
         <v>25000</v>
       </c>
       <c r="I81" cm="1">
@@ -9713,19 +10004,19 @@
         <v>2431</v>
       </c>
       <c r="M81">
-        <f>J81/F81</f>
+        <f t="shared" si="23"/>
         <v>1.6393077086430239</v>
       </c>
       <c r="N81">
-        <f>K81/E81</f>
+        <f t="shared" si="24"/>
         <v>5.3304020100502516</v>
       </c>
       <c r="O81">
-        <f>L81/D81</f>
+        <f t="shared" si="25"/>
         <v>0.83453484380363885</v>
       </c>
       <c r="P81">
-        <f>1/M81</f>
+        <f t="shared" si="26"/>
         <v>0.61001360191722265</v>
       </c>
       <c r="Q81" cm="1">
@@ -9741,23 +10032,27 @@
         <v>2388</v>
       </c>
       <c r="T81">
-        <f>R81/F81</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U81">
-        <f>S81/E81</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V81">
-        <f>C81*U81</f>
+        <f t="shared" si="29"/>
         <v>24</v>
       </c>
       <c r="W81">
-        <f>(M81-C81)/(1-C81)</f>
+        <f t="shared" si="30"/>
         <v>0.97220401266769463</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X81">
+        <f t="shared" si="31"/>
+        <v>0.59305767156579758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>768</v>
       </c>
@@ -9778,11 +10073,11 @@
         <v>17874</v>
       </c>
       <c r="G82">
-        <f>POWER(A82,2)/C82</f>
+        <f t="shared" si="21"/>
         <v>18432</v>
       </c>
       <c r="H82">
-        <f>ROUND(G82,-3)</f>
+        <f t="shared" si="22"/>
         <v>18000</v>
       </c>
       <c r="I82" cm="1">
@@ -9802,19 +10097,19 @@
         <v>2431</v>
       </c>
       <c r="M82">
-        <f>J82/F82</f>
+        <f t="shared" si="23"/>
         <v>1.7275372048785946</v>
       </c>
       <c r="N82">
-        <f>K82/E82</f>
+        <f t="shared" si="24"/>
         <v>6.1821272462360373</v>
       </c>
       <c r="O82">
-        <f>L82/D82</f>
+        <f t="shared" si="25"/>
         <v>1.4932432432432432</v>
       </c>
       <c r="P82">
-        <f>1/M82</f>
+        <f t="shared" si="26"/>
         <v>0.57885873437398794</v>
       </c>
       <c r="Q82" cm="1">
@@ -9830,23 +10125,27 @@
         <v>1351</v>
       </c>
       <c r="T82">
-        <f>R82/F82</f>
+        <f t="shared" si="27"/>
         <v>0.92206557010182388</v>
       </c>
       <c r="U82">
-        <f>S82/E82</f>
+        <f t="shared" si="28"/>
         <v>0.65614375910636236</v>
       </c>
       <c r="V82">
-        <f>C82*U82</f>
+        <f t="shared" si="29"/>
         <v>20.996600291403595</v>
       </c>
       <c r="W82">
-        <f>(M82-C82)/(1-C82)</f>
+        <f t="shared" si="30"/>
         <v>0.97653105790714212</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X82">
+        <f t="shared" si="31"/>
+        <v>0.56527353225701982</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>384</v>
       </c>
@@ -9866,11 +10165,11 @@
         <v>16481</v>
       </c>
       <c r="G83">
-        <f>POWER(A83,2)/C83</f>
+        <f t="shared" si="21"/>
         <v>18432</v>
       </c>
       <c r="H83">
-        <f>ROUND(G83,-3)</f>
+        <f t="shared" si="22"/>
         <v>18000</v>
       </c>
       <c r="I83" cm="1">
@@ -9890,19 +10189,19 @@
         <v>1446</v>
       </c>
       <c r="M83">
-        <f>J83/F83</f>
+        <f t="shared" si="23"/>
         <v>0.89308901158910259</v>
       </c>
       <c r="N83">
-        <f>K83/E83</f>
+        <f t="shared" si="24"/>
         <v>2.4374537379718726</v>
       </c>
       <c r="O83">
-        <f>L83/D83</f>
+        <f t="shared" si="25"/>
         <v>0.24144264484888964</v>
       </c>
       <c r="P83">
-        <f>1/M83</f>
+        <f t="shared" si="26"/>
         <v>1.1197092193763163</v>
       </c>
       <c r="Q83" cm="1">
@@ -9918,23 +10217,27 @@
         <v>1351</v>
       </c>
       <c r="T83">
-        <f>R83/F83</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U83">
-        <f>S83/E83</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V83">
-        <f>C83*U83</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="W83">
-        <f>(M83-C83)/(1-C83)</f>
+        <f t="shared" si="30"/>
         <v>1.015272998344414</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X83">
+        <f t="shared" si="31"/>
+        <v>1.1368105364300758</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>768</v>
       </c>
@@ -9955,11 +10258,11 @@
         <v>17658</v>
       </c>
       <c r="G84">
-        <f>POWER(A84,2)/C84</f>
+        <f t="shared" si="21"/>
         <v>14745.6</v>
       </c>
       <c r="H84">
-        <f>ROUND(G84,-3)</f>
+        <f t="shared" si="22"/>
         <v>15000</v>
       </c>
       <c r="I84" cm="1">
@@ -9979,19 +10282,19 @@
         <v>2431</v>
       </c>
       <c r="M84">
-        <f>J84/F84</f>
+        <f t="shared" si="23"/>
         <v>1.7486691584550911</v>
       </c>
       <c r="N84">
-        <f>K84/E84</f>
+        <f t="shared" si="24"/>
         <v>6.5715023231801757</v>
       </c>
       <c r="O84">
-        <f>L84/D84</f>
+        <f t="shared" si="25"/>
         <v>1.5583333333333333</v>
       </c>
       <c r="P84">
-        <f>1/M84</f>
+        <f t="shared" si="26"/>
         <v>0.57186346265949872</v>
       </c>
       <c r="Q84" cm="1">
@@ -10007,23 +10310,27 @@
         <v>1937</v>
       </c>
       <c r="T84">
-        <f>R84/F84</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U84">
-        <f>S84/E84</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V84">
-        <f>C84*U84</f>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="W84">
-        <f>(M84-C84)/(1-C84)</f>
+        <f t="shared" si="30"/>
         <v>0.9808033549114078</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X84">
+        <f t="shared" si="31"/>
+        <v>0.56088560272769095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>384</v>
       </c>
@@ -10043,11 +10350,11 @@
         <v>16824</v>
       </c>
       <c r="G85">
-        <f>POWER(A85,2)/C85</f>
+        <f t="shared" si="21"/>
         <v>9216</v>
       </c>
       <c r="H85">
-        <f>ROUND(G85,-3)</f>
+        <f t="shared" si="22"/>
         <v>9000</v>
       </c>
       <c r="I85" cm="1">
@@ -10067,19 +10374,19 @@
         <v>1446</v>
       </c>
       <c r="M85">
-        <f>J85/F85</f>
+        <f t="shared" si="23"/>
         <v>0.87488112220637182</v>
       </c>
       <c r="N85">
-        <f>K85/E85</f>
+        <f t="shared" si="24"/>
         <v>2.0314620604565081</v>
       </c>
       <c r="O85">
-        <f>L85/D85</f>
+        <f t="shared" si="25"/>
         <v>0.24294354838709678</v>
       </c>
       <c r="P85">
-        <f>1/M85</f>
+        <f t="shared" si="26"/>
         <v>1.1430124329098446</v>
       </c>
       <c r="Q85" cm="1">
@@ -10095,27 +10402,38 @@
         <v>1621</v>
       </c>
       <c r="T85">
-        <f>R85/F85</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U85">
-        <f>S85/E85</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V85">
-        <f>C85*U85</f>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="W85">
-        <f>(M85-C85)/(1-C85)</f>
+        <f t="shared" si="30"/>
         <v>1.0083412585195752</v>
       </c>
+      <c r="X85">
+        <f t="shared" si="31"/>
+        <v>1.1525465951038343</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A85" xr:uid="{D6D6D321-10E5-D649-8FDE-F0B627178028}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="12288"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W88">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
-  <conditionalFormatting sqref="W1:W1048576">
+  <conditionalFormatting sqref="W1:W1048576 X1">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10144,182 +10462,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3072</v>
-      </c>
-      <c r="C2">
-        <v>9437184</v>
-      </c>
-      <c r="D2">
-        <v>17844</v>
-      </c>
-      <c r="E2">
-        <v>324922</v>
-      </c>
-      <c r="F2">
-        <v>408295</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>6144</v>
-      </c>
-      <c r="C3">
-        <v>9437184</v>
-      </c>
-      <c r="D3">
-        <v>20461</v>
-      </c>
-      <c r="E3">
-        <v>263266</v>
-      </c>
-      <c r="F3">
-        <v>346624</v>
-      </c>
-      <c r="G3">
-        <f>D3/D2</f>
-        <v>1.1466599417171037</v>
-      </c>
-      <c r="H3">
-        <f>E3/E2</f>
-        <v>0.81024368925465184</v>
-      </c>
-      <c r="I3">
-        <f>F3/F2</f>
-        <v>0.8489547998383522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>12288</v>
-      </c>
-      <c r="C4">
-        <v>9437184</v>
-      </c>
-      <c r="D4">
-        <v>34394</v>
-      </c>
-      <c r="E4">
-        <v>511665</v>
-      </c>
-      <c r="F4">
-        <v>671345</v>
-      </c>
-      <c r="G4">
-        <f>D4/D2</f>
-        <v>1.9274826272136292</v>
-      </c>
-      <c r="H4">
-        <f>E4/E2</f>
-        <v>1.5747317817814737</v>
-      </c>
-      <c r="I4">
-        <f>F4/F2</f>
-        <v>1.6442645636120943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>24576</v>
-      </c>
-      <c r="C5">
-        <v>9437184</v>
-      </c>
-      <c r="D5">
-        <v>34219</v>
-      </c>
-      <c r="E5">
-        <v>580086</v>
-      </c>
-      <c r="F5">
-        <v>752438</v>
-      </c>
-      <c r="G5">
-        <f>D5/D2</f>
-        <v>1.9176754091010983</v>
-      </c>
-      <c r="H5">
-        <f>E5/E2</f>
-        <v>1.7853084740337681</v>
-      </c>
-      <c r="I5">
-        <f>F5/F2</f>
-        <v>1.8428783110251166</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60836EF6-E06A-CE43-97FF-DE23F93BE01E}">
   <dimension ref="A1:N52"/>
   <sheetViews>
@@ -10356,20 +10498,20 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
